--- a/socialstyrelsen/statistik-covid19-inskrivna_2021-03-14.xlsx
+++ b/socialstyrelsen/statistik-covid19-inskrivna_2021-03-14.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projekt\Covid19_intensivvard\Upprepade leveranser\Output\Arbetsmapp\MALL_UT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Delad\510-Statistik covid19\5. Att publicera på slutenvård av patienter med covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="270" windowWidth="2880" windowHeight="5325" tabRatio="642"/>
+    <workbookView xWindow="720" yWindow="276" windowWidth="2880" windowHeight="5328" tabRatio="642"/>
   </bookViews>
   <sheets>
     <sheet name="Om statistiken" sheetId="11" r:id="rId1"/>
@@ -2119,7 +2119,7 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2739,9 +2739,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2756,9 +2753,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2799,58 +2793,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
@@ -2880,11 +2823,62 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2949,7 +2943,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
@@ -2961,13 +2955,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7427,478 +7424,478 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="3" max="3" width="40.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="258" max="258" width="23.5" customWidth="1"/>
-    <col min="259" max="259" width="40.5" customWidth="1"/>
-    <col min="260" max="260" width="9.33203125" customWidth="1"/>
-    <col min="261" max="261" width="46.1640625" customWidth="1"/>
-    <col min="262" max="262" width="55.5" customWidth="1"/>
-    <col min="263" max="263" width="29.6640625" customWidth="1"/>
-    <col min="514" max="514" width="23.5" customWidth="1"/>
-    <col min="515" max="515" width="40.5" customWidth="1"/>
-    <col min="516" max="516" width="9.33203125" customWidth="1"/>
-    <col min="517" max="517" width="46.1640625" customWidth="1"/>
-    <col min="518" max="518" width="55.5" customWidth="1"/>
-    <col min="519" max="519" width="29.6640625" customWidth="1"/>
-    <col min="770" max="770" width="23.5" customWidth="1"/>
-    <col min="771" max="771" width="40.5" customWidth="1"/>
-    <col min="772" max="772" width="9.33203125" customWidth="1"/>
-    <col min="773" max="773" width="46.1640625" customWidth="1"/>
-    <col min="774" max="774" width="55.5" customWidth="1"/>
-    <col min="775" max="775" width="29.6640625" customWidth="1"/>
-    <col min="1026" max="1026" width="23.5" customWidth="1"/>
-    <col min="1027" max="1027" width="40.5" customWidth="1"/>
-    <col min="1028" max="1028" width="9.33203125" customWidth="1"/>
-    <col min="1029" max="1029" width="46.1640625" customWidth="1"/>
-    <col min="1030" max="1030" width="55.5" customWidth="1"/>
-    <col min="1031" max="1031" width="29.6640625" customWidth="1"/>
-    <col min="1282" max="1282" width="23.5" customWidth="1"/>
-    <col min="1283" max="1283" width="40.5" customWidth="1"/>
-    <col min="1284" max="1284" width="9.33203125" customWidth="1"/>
-    <col min="1285" max="1285" width="46.1640625" customWidth="1"/>
-    <col min="1286" max="1286" width="55.5" customWidth="1"/>
-    <col min="1287" max="1287" width="29.6640625" customWidth="1"/>
-    <col min="1538" max="1538" width="23.5" customWidth="1"/>
-    <col min="1539" max="1539" width="40.5" customWidth="1"/>
-    <col min="1540" max="1540" width="9.33203125" customWidth="1"/>
-    <col min="1541" max="1541" width="46.1640625" customWidth="1"/>
-    <col min="1542" max="1542" width="55.5" customWidth="1"/>
-    <col min="1543" max="1543" width="29.6640625" customWidth="1"/>
-    <col min="1794" max="1794" width="23.5" customWidth="1"/>
-    <col min="1795" max="1795" width="40.5" customWidth="1"/>
-    <col min="1796" max="1796" width="9.33203125" customWidth="1"/>
-    <col min="1797" max="1797" width="46.1640625" customWidth="1"/>
-    <col min="1798" max="1798" width="55.5" customWidth="1"/>
-    <col min="1799" max="1799" width="29.6640625" customWidth="1"/>
-    <col min="2050" max="2050" width="23.5" customWidth="1"/>
-    <col min="2051" max="2051" width="40.5" customWidth="1"/>
-    <col min="2052" max="2052" width="9.33203125" customWidth="1"/>
-    <col min="2053" max="2053" width="46.1640625" customWidth="1"/>
-    <col min="2054" max="2054" width="55.5" customWidth="1"/>
-    <col min="2055" max="2055" width="29.6640625" customWidth="1"/>
-    <col min="2306" max="2306" width="23.5" customWidth="1"/>
-    <col min="2307" max="2307" width="40.5" customWidth="1"/>
-    <col min="2308" max="2308" width="9.33203125" customWidth="1"/>
-    <col min="2309" max="2309" width="46.1640625" customWidth="1"/>
-    <col min="2310" max="2310" width="55.5" customWidth="1"/>
-    <col min="2311" max="2311" width="29.6640625" customWidth="1"/>
-    <col min="2562" max="2562" width="23.5" customWidth="1"/>
-    <col min="2563" max="2563" width="40.5" customWidth="1"/>
-    <col min="2564" max="2564" width="9.33203125" customWidth="1"/>
-    <col min="2565" max="2565" width="46.1640625" customWidth="1"/>
-    <col min="2566" max="2566" width="55.5" customWidth="1"/>
-    <col min="2567" max="2567" width="29.6640625" customWidth="1"/>
-    <col min="2818" max="2818" width="23.5" customWidth="1"/>
-    <col min="2819" max="2819" width="40.5" customWidth="1"/>
-    <col min="2820" max="2820" width="9.33203125" customWidth="1"/>
-    <col min="2821" max="2821" width="46.1640625" customWidth="1"/>
-    <col min="2822" max="2822" width="55.5" customWidth="1"/>
-    <col min="2823" max="2823" width="29.6640625" customWidth="1"/>
-    <col min="3074" max="3074" width="23.5" customWidth="1"/>
-    <col min="3075" max="3075" width="40.5" customWidth="1"/>
-    <col min="3076" max="3076" width="9.33203125" customWidth="1"/>
-    <col min="3077" max="3077" width="46.1640625" customWidth="1"/>
-    <col min="3078" max="3078" width="55.5" customWidth="1"/>
-    <col min="3079" max="3079" width="29.6640625" customWidth="1"/>
-    <col min="3330" max="3330" width="23.5" customWidth="1"/>
-    <col min="3331" max="3331" width="40.5" customWidth="1"/>
-    <col min="3332" max="3332" width="9.33203125" customWidth="1"/>
-    <col min="3333" max="3333" width="46.1640625" customWidth="1"/>
-    <col min="3334" max="3334" width="55.5" customWidth="1"/>
-    <col min="3335" max="3335" width="29.6640625" customWidth="1"/>
-    <col min="3586" max="3586" width="23.5" customWidth="1"/>
-    <col min="3587" max="3587" width="40.5" customWidth="1"/>
-    <col min="3588" max="3588" width="9.33203125" customWidth="1"/>
-    <col min="3589" max="3589" width="46.1640625" customWidth="1"/>
-    <col min="3590" max="3590" width="55.5" customWidth="1"/>
-    <col min="3591" max="3591" width="29.6640625" customWidth="1"/>
-    <col min="3842" max="3842" width="23.5" customWidth="1"/>
-    <col min="3843" max="3843" width="40.5" customWidth="1"/>
-    <col min="3844" max="3844" width="9.33203125" customWidth="1"/>
-    <col min="3845" max="3845" width="46.1640625" customWidth="1"/>
-    <col min="3846" max="3846" width="55.5" customWidth="1"/>
-    <col min="3847" max="3847" width="29.6640625" customWidth="1"/>
-    <col min="4098" max="4098" width="23.5" customWidth="1"/>
-    <col min="4099" max="4099" width="40.5" customWidth="1"/>
-    <col min="4100" max="4100" width="9.33203125" customWidth="1"/>
-    <col min="4101" max="4101" width="46.1640625" customWidth="1"/>
-    <col min="4102" max="4102" width="55.5" customWidth="1"/>
-    <col min="4103" max="4103" width="29.6640625" customWidth="1"/>
-    <col min="4354" max="4354" width="23.5" customWidth="1"/>
-    <col min="4355" max="4355" width="40.5" customWidth="1"/>
-    <col min="4356" max="4356" width="9.33203125" customWidth="1"/>
-    <col min="4357" max="4357" width="46.1640625" customWidth="1"/>
-    <col min="4358" max="4358" width="55.5" customWidth="1"/>
-    <col min="4359" max="4359" width="29.6640625" customWidth="1"/>
-    <col min="4610" max="4610" width="23.5" customWidth="1"/>
-    <col min="4611" max="4611" width="40.5" customWidth="1"/>
-    <col min="4612" max="4612" width="9.33203125" customWidth="1"/>
-    <col min="4613" max="4613" width="46.1640625" customWidth="1"/>
-    <col min="4614" max="4614" width="55.5" customWidth="1"/>
-    <col min="4615" max="4615" width="29.6640625" customWidth="1"/>
-    <col min="4866" max="4866" width="23.5" customWidth="1"/>
-    <col min="4867" max="4867" width="40.5" customWidth="1"/>
-    <col min="4868" max="4868" width="9.33203125" customWidth="1"/>
-    <col min="4869" max="4869" width="46.1640625" customWidth="1"/>
-    <col min="4870" max="4870" width="55.5" customWidth="1"/>
-    <col min="4871" max="4871" width="29.6640625" customWidth="1"/>
-    <col min="5122" max="5122" width="23.5" customWidth="1"/>
-    <col min="5123" max="5123" width="40.5" customWidth="1"/>
-    <col min="5124" max="5124" width="9.33203125" customWidth="1"/>
-    <col min="5125" max="5125" width="46.1640625" customWidth="1"/>
-    <col min="5126" max="5126" width="55.5" customWidth="1"/>
-    <col min="5127" max="5127" width="29.6640625" customWidth="1"/>
-    <col min="5378" max="5378" width="23.5" customWidth="1"/>
-    <col min="5379" max="5379" width="40.5" customWidth="1"/>
-    <col min="5380" max="5380" width="9.33203125" customWidth="1"/>
-    <col min="5381" max="5381" width="46.1640625" customWidth="1"/>
-    <col min="5382" max="5382" width="55.5" customWidth="1"/>
-    <col min="5383" max="5383" width="29.6640625" customWidth="1"/>
-    <col min="5634" max="5634" width="23.5" customWidth="1"/>
-    <col min="5635" max="5635" width="40.5" customWidth="1"/>
-    <col min="5636" max="5636" width="9.33203125" customWidth="1"/>
-    <col min="5637" max="5637" width="46.1640625" customWidth="1"/>
-    <col min="5638" max="5638" width="55.5" customWidth="1"/>
-    <col min="5639" max="5639" width="29.6640625" customWidth="1"/>
-    <col min="5890" max="5890" width="23.5" customWidth="1"/>
-    <col min="5891" max="5891" width="40.5" customWidth="1"/>
-    <col min="5892" max="5892" width="9.33203125" customWidth="1"/>
-    <col min="5893" max="5893" width="46.1640625" customWidth="1"/>
-    <col min="5894" max="5894" width="55.5" customWidth="1"/>
-    <col min="5895" max="5895" width="29.6640625" customWidth="1"/>
-    <col min="6146" max="6146" width="23.5" customWidth="1"/>
-    <col min="6147" max="6147" width="40.5" customWidth="1"/>
-    <col min="6148" max="6148" width="9.33203125" customWidth="1"/>
-    <col min="6149" max="6149" width="46.1640625" customWidth="1"/>
-    <col min="6150" max="6150" width="55.5" customWidth="1"/>
-    <col min="6151" max="6151" width="29.6640625" customWidth="1"/>
-    <col min="6402" max="6402" width="23.5" customWidth="1"/>
-    <col min="6403" max="6403" width="40.5" customWidth="1"/>
-    <col min="6404" max="6404" width="9.33203125" customWidth="1"/>
-    <col min="6405" max="6405" width="46.1640625" customWidth="1"/>
-    <col min="6406" max="6406" width="55.5" customWidth="1"/>
-    <col min="6407" max="6407" width="29.6640625" customWidth="1"/>
-    <col min="6658" max="6658" width="23.5" customWidth="1"/>
-    <col min="6659" max="6659" width="40.5" customWidth="1"/>
-    <col min="6660" max="6660" width="9.33203125" customWidth="1"/>
-    <col min="6661" max="6661" width="46.1640625" customWidth="1"/>
-    <col min="6662" max="6662" width="55.5" customWidth="1"/>
-    <col min="6663" max="6663" width="29.6640625" customWidth="1"/>
-    <col min="6914" max="6914" width="23.5" customWidth="1"/>
-    <col min="6915" max="6915" width="40.5" customWidth="1"/>
-    <col min="6916" max="6916" width="9.33203125" customWidth="1"/>
-    <col min="6917" max="6917" width="46.1640625" customWidth="1"/>
-    <col min="6918" max="6918" width="55.5" customWidth="1"/>
-    <col min="6919" max="6919" width="29.6640625" customWidth="1"/>
-    <col min="7170" max="7170" width="23.5" customWidth="1"/>
-    <col min="7171" max="7171" width="40.5" customWidth="1"/>
-    <col min="7172" max="7172" width="9.33203125" customWidth="1"/>
-    <col min="7173" max="7173" width="46.1640625" customWidth="1"/>
-    <col min="7174" max="7174" width="55.5" customWidth="1"/>
-    <col min="7175" max="7175" width="29.6640625" customWidth="1"/>
-    <col min="7426" max="7426" width="23.5" customWidth="1"/>
-    <col min="7427" max="7427" width="40.5" customWidth="1"/>
-    <col min="7428" max="7428" width="9.33203125" customWidth="1"/>
-    <col min="7429" max="7429" width="46.1640625" customWidth="1"/>
-    <col min="7430" max="7430" width="55.5" customWidth="1"/>
-    <col min="7431" max="7431" width="29.6640625" customWidth="1"/>
-    <col min="7682" max="7682" width="23.5" customWidth="1"/>
-    <col min="7683" max="7683" width="40.5" customWidth="1"/>
-    <col min="7684" max="7684" width="9.33203125" customWidth="1"/>
-    <col min="7685" max="7685" width="46.1640625" customWidth="1"/>
-    <col min="7686" max="7686" width="55.5" customWidth="1"/>
-    <col min="7687" max="7687" width="29.6640625" customWidth="1"/>
-    <col min="7938" max="7938" width="23.5" customWidth="1"/>
-    <col min="7939" max="7939" width="40.5" customWidth="1"/>
-    <col min="7940" max="7940" width="9.33203125" customWidth="1"/>
-    <col min="7941" max="7941" width="46.1640625" customWidth="1"/>
-    <col min="7942" max="7942" width="55.5" customWidth="1"/>
-    <col min="7943" max="7943" width="29.6640625" customWidth="1"/>
-    <col min="8194" max="8194" width="23.5" customWidth="1"/>
-    <col min="8195" max="8195" width="40.5" customWidth="1"/>
-    <col min="8196" max="8196" width="9.33203125" customWidth="1"/>
-    <col min="8197" max="8197" width="46.1640625" customWidth="1"/>
-    <col min="8198" max="8198" width="55.5" customWidth="1"/>
-    <col min="8199" max="8199" width="29.6640625" customWidth="1"/>
-    <col min="8450" max="8450" width="23.5" customWidth="1"/>
-    <col min="8451" max="8451" width="40.5" customWidth="1"/>
-    <col min="8452" max="8452" width="9.33203125" customWidth="1"/>
-    <col min="8453" max="8453" width="46.1640625" customWidth="1"/>
-    <col min="8454" max="8454" width="55.5" customWidth="1"/>
-    <col min="8455" max="8455" width="29.6640625" customWidth="1"/>
-    <col min="8706" max="8706" width="23.5" customWidth="1"/>
-    <col min="8707" max="8707" width="40.5" customWidth="1"/>
-    <col min="8708" max="8708" width="9.33203125" customWidth="1"/>
-    <col min="8709" max="8709" width="46.1640625" customWidth="1"/>
-    <col min="8710" max="8710" width="55.5" customWidth="1"/>
-    <col min="8711" max="8711" width="29.6640625" customWidth="1"/>
-    <col min="8962" max="8962" width="23.5" customWidth="1"/>
-    <col min="8963" max="8963" width="40.5" customWidth="1"/>
-    <col min="8964" max="8964" width="9.33203125" customWidth="1"/>
-    <col min="8965" max="8965" width="46.1640625" customWidth="1"/>
-    <col min="8966" max="8966" width="55.5" customWidth="1"/>
-    <col min="8967" max="8967" width="29.6640625" customWidth="1"/>
-    <col min="9218" max="9218" width="23.5" customWidth="1"/>
-    <col min="9219" max="9219" width="40.5" customWidth="1"/>
-    <col min="9220" max="9220" width="9.33203125" customWidth="1"/>
-    <col min="9221" max="9221" width="46.1640625" customWidth="1"/>
-    <col min="9222" max="9222" width="55.5" customWidth="1"/>
-    <col min="9223" max="9223" width="29.6640625" customWidth="1"/>
-    <col min="9474" max="9474" width="23.5" customWidth="1"/>
-    <col min="9475" max="9475" width="40.5" customWidth="1"/>
-    <col min="9476" max="9476" width="9.33203125" customWidth="1"/>
-    <col min="9477" max="9477" width="46.1640625" customWidth="1"/>
-    <col min="9478" max="9478" width="55.5" customWidth="1"/>
-    <col min="9479" max="9479" width="29.6640625" customWidth="1"/>
-    <col min="9730" max="9730" width="23.5" customWidth="1"/>
-    <col min="9731" max="9731" width="40.5" customWidth="1"/>
-    <col min="9732" max="9732" width="9.33203125" customWidth="1"/>
-    <col min="9733" max="9733" width="46.1640625" customWidth="1"/>
-    <col min="9734" max="9734" width="55.5" customWidth="1"/>
-    <col min="9735" max="9735" width="29.6640625" customWidth="1"/>
-    <col min="9986" max="9986" width="23.5" customWidth="1"/>
-    <col min="9987" max="9987" width="40.5" customWidth="1"/>
-    <col min="9988" max="9988" width="9.33203125" customWidth="1"/>
-    <col min="9989" max="9989" width="46.1640625" customWidth="1"/>
-    <col min="9990" max="9990" width="55.5" customWidth="1"/>
-    <col min="9991" max="9991" width="29.6640625" customWidth="1"/>
-    <col min="10242" max="10242" width="23.5" customWidth="1"/>
-    <col min="10243" max="10243" width="40.5" customWidth="1"/>
-    <col min="10244" max="10244" width="9.33203125" customWidth="1"/>
-    <col min="10245" max="10245" width="46.1640625" customWidth="1"/>
-    <col min="10246" max="10246" width="55.5" customWidth="1"/>
-    <col min="10247" max="10247" width="29.6640625" customWidth="1"/>
-    <col min="10498" max="10498" width="23.5" customWidth="1"/>
-    <col min="10499" max="10499" width="40.5" customWidth="1"/>
-    <col min="10500" max="10500" width="9.33203125" customWidth="1"/>
-    <col min="10501" max="10501" width="46.1640625" customWidth="1"/>
-    <col min="10502" max="10502" width="55.5" customWidth="1"/>
-    <col min="10503" max="10503" width="29.6640625" customWidth="1"/>
-    <col min="10754" max="10754" width="23.5" customWidth="1"/>
-    <col min="10755" max="10755" width="40.5" customWidth="1"/>
-    <col min="10756" max="10756" width="9.33203125" customWidth="1"/>
-    <col min="10757" max="10757" width="46.1640625" customWidth="1"/>
-    <col min="10758" max="10758" width="55.5" customWidth="1"/>
-    <col min="10759" max="10759" width="29.6640625" customWidth="1"/>
-    <col min="11010" max="11010" width="23.5" customWidth="1"/>
-    <col min="11011" max="11011" width="40.5" customWidth="1"/>
-    <col min="11012" max="11012" width="9.33203125" customWidth="1"/>
-    <col min="11013" max="11013" width="46.1640625" customWidth="1"/>
-    <col min="11014" max="11014" width="55.5" customWidth="1"/>
-    <col min="11015" max="11015" width="29.6640625" customWidth="1"/>
-    <col min="11266" max="11266" width="23.5" customWidth="1"/>
-    <col min="11267" max="11267" width="40.5" customWidth="1"/>
-    <col min="11268" max="11268" width="9.33203125" customWidth="1"/>
-    <col min="11269" max="11269" width="46.1640625" customWidth="1"/>
-    <col min="11270" max="11270" width="55.5" customWidth="1"/>
-    <col min="11271" max="11271" width="29.6640625" customWidth="1"/>
-    <col min="11522" max="11522" width="23.5" customWidth="1"/>
-    <col min="11523" max="11523" width="40.5" customWidth="1"/>
-    <col min="11524" max="11524" width="9.33203125" customWidth="1"/>
-    <col min="11525" max="11525" width="46.1640625" customWidth="1"/>
-    <col min="11526" max="11526" width="55.5" customWidth="1"/>
-    <col min="11527" max="11527" width="29.6640625" customWidth="1"/>
-    <col min="11778" max="11778" width="23.5" customWidth="1"/>
-    <col min="11779" max="11779" width="40.5" customWidth="1"/>
-    <col min="11780" max="11780" width="9.33203125" customWidth="1"/>
-    <col min="11781" max="11781" width="46.1640625" customWidth="1"/>
-    <col min="11782" max="11782" width="55.5" customWidth="1"/>
-    <col min="11783" max="11783" width="29.6640625" customWidth="1"/>
-    <col min="12034" max="12034" width="23.5" customWidth="1"/>
-    <col min="12035" max="12035" width="40.5" customWidth="1"/>
-    <col min="12036" max="12036" width="9.33203125" customWidth="1"/>
-    <col min="12037" max="12037" width="46.1640625" customWidth="1"/>
-    <col min="12038" max="12038" width="55.5" customWidth="1"/>
-    <col min="12039" max="12039" width="29.6640625" customWidth="1"/>
-    <col min="12290" max="12290" width="23.5" customWidth="1"/>
-    <col min="12291" max="12291" width="40.5" customWidth="1"/>
-    <col min="12292" max="12292" width="9.33203125" customWidth="1"/>
-    <col min="12293" max="12293" width="46.1640625" customWidth="1"/>
-    <col min="12294" max="12294" width="55.5" customWidth="1"/>
-    <col min="12295" max="12295" width="29.6640625" customWidth="1"/>
-    <col min="12546" max="12546" width="23.5" customWidth="1"/>
-    <col min="12547" max="12547" width="40.5" customWidth="1"/>
-    <col min="12548" max="12548" width="9.33203125" customWidth="1"/>
-    <col min="12549" max="12549" width="46.1640625" customWidth="1"/>
-    <col min="12550" max="12550" width="55.5" customWidth="1"/>
-    <col min="12551" max="12551" width="29.6640625" customWidth="1"/>
-    <col min="12802" max="12802" width="23.5" customWidth="1"/>
-    <col min="12803" max="12803" width="40.5" customWidth="1"/>
-    <col min="12804" max="12804" width="9.33203125" customWidth="1"/>
-    <col min="12805" max="12805" width="46.1640625" customWidth="1"/>
-    <col min="12806" max="12806" width="55.5" customWidth="1"/>
-    <col min="12807" max="12807" width="29.6640625" customWidth="1"/>
-    <col min="13058" max="13058" width="23.5" customWidth="1"/>
-    <col min="13059" max="13059" width="40.5" customWidth="1"/>
-    <col min="13060" max="13060" width="9.33203125" customWidth="1"/>
-    <col min="13061" max="13061" width="46.1640625" customWidth="1"/>
-    <col min="13062" max="13062" width="55.5" customWidth="1"/>
-    <col min="13063" max="13063" width="29.6640625" customWidth="1"/>
-    <col min="13314" max="13314" width="23.5" customWidth="1"/>
-    <col min="13315" max="13315" width="40.5" customWidth="1"/>
-    <col min="13316" max="13316" width="9.33203125" customWidth="1"/>
-    <col min="13317" max="13317" width="46.1640625" customWidth="1"/>
-    <col min="13318" max="13318" width="55.5" customWidth="1"/>
-    <col min="13319" max="13319" width="29.6640625" customWidth="1"/>
-    <col min="13570" max="13570" width="23.5" customWidth="1"/>
-    <col min="13571" max="13571" width="40.5" customWidth="1"/>
-    <col min="13572" max="13572" width="9.33203125" customWidth="1"/>
-    <col min="13573" max="13573" width="46.1640625" customWidth="1"/>
-    <col min="13574" max="13574" width="55.5" customWidth="1"/>
-    <col min="13575" max="13575" width="29.6640625" customWidth="1"/>
-    <col min="13826" max="13826" width="23.5" customWidth="1"/>
-    <col min="13827" max="13827" width="40.5" customWidth="1"/>
-    <col min="13828" max="13828" width="9.33203125" customWidth="1"/>
-    <col min="13829" max="13829" width="46.1640625" customWidth="1"/>
-    <col min="13830" max="13830" width="55.5" customWidth="1"/>
-    <col min="13831" max="13831" width="29.6640625" customWidth="1"/>
-    <col min="14082" max="14082" width="23.5" customWidth="1"/>
-    <col min="14083" max="14083" width="40.5" customWidth="1"/>
-    <col min="14084" max="14084" width="9.33203125" customWidth="1"/>
-    <col min="14085" max="14085" width="46.1640625" customWidth="1"/>
-    <col min="14086" max="14086" width="55.5" customWidth="1"/>
-    <col min="14087" max="14087" width="29.6640625" customWidth="1"/>
-    <col min="14338" max="14338" width="23.5" customWidth="1"/>
-    <col min="14339" max="14339" width="40.5" customWidth="1"/>
-    <col min="14340" max="14340" width="9.33203125" customWidth="1"/>
-    <col min="14341" max="14341" width="46.1640625" customWidth="1"/>
-    <col min="14342" max="14342" width="55.5" customWidth="1"/>
-    <col min="14343" max="14343" width="29.6640625" customWidth="1"/>
-    <col min="14594" max="14594" width="23.5" customWidth="1"/>
-    <col min="14595" max="14595" width="40.5" customWidth="1"/>
-    <col min="14596" max="14596" width="9.33203125" customWidth="1"/>
-    <col min="14597" max="14597" width="46.1640625" customWidth="1"/>
-    <col min="14598" max="14598" width="55.5" customWidth="1"/>
-    <col min="14599" max="14599" width="29.6640625" customWidth="1"/>
-    <col min="14850" max="14850" width="23.5" customWidth="1"/>
-    <col min="14851" max="14851" width="40.5" customWidth="1"/>
-    <col min="14852" max="14852" width="9.33203125" customWidth="1"/>
-    <col min="14853" max="14853" width="46.1640625" customWidth="1"/>
-    <col min="14854" max="14854" width="55.5" customWidth="1"/>
-    <col min="14855" max="14855" width="29.6640625" customWidth="1"/>
-    <col min="15106" max="15106" width="23.5" customWidth="1"/>
-    <col min="15107" max="15107" width="40.5" customWidth="1"/>
-    <col min="15108" max="15108" width="9.33203125" customWidth="1"/>
-    <col min="15109" max="15109" width="46.1640625" customWidth="1"/>
-    <col min="15110" max="15110" width="55.5" customWidth="1"/>
-    <col min="15111" max="15111" width="29.6640625" customWidth="1"/>
-    <col min="15362" max="15362" width="23.5" customWidth="1"/>
-    <col min="15363" max="15363" width="40.5" customWidth="1"/>
-    <col min="15364" max="15364" width="9.33203125" customWidth="1"/>
-    <col min="15365" max="15365" width="46.1640625" customWidth="1"/>
-    <col min="15366" max="15366" width="55.5" customWidth="1"/>
-    <col min="15367" max="15367" width="29.6640625" customWidth="1"/>
-    <col min="15618" max="15618" width="23.5" customWidth="1"/>
-    <col min="15619" max="15619" width="40.5" customWidth="1"/>
-    <col min="15620" max="15620" width="9.33203125" customWidth="1"/>
-    <col min="15621" max="15621" width="46.1640625" customWidth="1"/>
-    <col min="15622" max="15622" width="55.5" customWidth="1"/>
-    <col min="15623" max="15623" width="29.6640625" customWidth="1"/>
-    <col min="15874" max="15874" width="23.5" customWidth="1"/>
-    <col min="15875" max="15875" width="40.5" customWidth="1"/>
-    <col min="15876" max="15876" width="9.33203125" customWidth="1"/>
-    <col min="15877" max="15877" width="46.1640625" customWidth="1"/>
-    <col min="15878" max="15878" width="55.5" customWidth="1"/>
-    <col min="15879" max="15879" width="29.6640625" customWidth="1"/>
-    <col min="16130" max="16130" width="23.5" customWidth="1"/>
-    <col min="16131" max="16131" width="40.5" customWidth="1"/>
-    <col min="16132" max="16132" width="9.33203125" customWidth="1"/>
-    <col min="16133" max="16133" width="46.1640625" customWidth="1"/>
-    <col min="16134" max="16134" width="55.5" customWidth="1"/>
-    <col min="16135" max="16135" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="258" max="258" width="23.42578125" customWidth="1"/>
+    <col min="259" max="259" width="40.42578125" customWidth="1"/>
+    <col min="260" max="260" width="9.28515625" customWidth="1"/>
+    <col min="261" max="261" width="46.140625" customWidth="1"/>
+    <col min="262" max="262" width="55.42578125" customWidth="1"/>
+    <col min="263" max="263" width="29.7109375" customWidth="1"/>
+    <col min="514" max="514" width="23.42578125" customWidth="1"/>
+    <col min="515" max="515" width="40.42578125" customWidth="1"/>
+    <col min="516" max="516" width="9.28515625" customWidth="1"/>
+    <col min="517" max="517" width="46.140625" customWidth="1"/>
+    <col min="518" max="518" width="55.42578125" customWidth="1"/>
+    <col min="519" max="519" width="29.7109375" customWidth="1"/>
+    <col min="770" max="770" width="23.42578125" customWidth="1"/>
+    <col min="771" max="771" width="40.42578125" customWidth="1"/>
+    <col min="772" max="772" width="9.28515625" customWidth="1"/>
+    <col min="773" max="773" width="46.140625" customWidth="1"/>
+    <col min="774" max="774" width="55.42578125" customWidth="1"/>
+    <col min="775" max="775" width="29.7109375" customWidth="1"/>
+    <col min="1026" max="1026" width="23.42578125" customWidth="1"/>
+    <col min="1027" max="1027" width="40.42578125" customWidth="1"/>
+    <col min="1028" max="1028" width="9.28515625" customWidth="1"/>
+    <col min="1029" max="1029" width="46.140625" customWidth="1"/>
+    <col min="1030" max="1030" width="55.42578125" customWidth="1"/>
+    <col min="1031" max="1031" width="29.7109375" customWidth="1"/>
+    <col min="1282" max="1282" width="23.42578125" customWidth="1"/>
+    <col min="1283" max="1283" width="40.42578125" customWidth="1"/>
+    <col min="1284" max="1284" width="9.28515625" customWidth="1"/>
+    <col min="1285" max="1285" width="46.140625" customWidth="1"/>
+    <col min="1286" max="1286" width="55.42578125" customWidth="1"/>
+    <col min="1287" max="1287" width="29.7109375" customWidth="1"/>
+    <col min="1538" max="1538" width="23.42578125" customWidth="1"/>
+    <col min="1539" max="1539" width="40.42578125" customWidth="1"/>
+    <col min="1540" max="1540" width="9.28515625" customWidth="1"/>
+    <col min="1541" max="1541" width="46.140625" customWidth="1"/>
+    <col min="1542" max="1542" width="55.42578125" customWidth="1"/>
+    <col min="1543" max="1543" width="29.7109375" customWidth="1"/>
+    <col min="1794" max="1794" width="23.42578125" customWidth="1"/>
+    <col min="1795" max="1795" width="40.42578125" customWidth="1"/>
+    <col min="1796" max="1796" width="9.28515625" customWidth="1"/>
+    <col min="1797" max="1797" width="46.140625" customWidth="1"/>
+    <col min="1798" max="1798" width="55.42578125" customWidth="1"/>
+    <col min="1799" max="1799" width="29.7109375" customWidth="1"/>
+    <col min="2050" max="2050" width="23.42578125" customWidth="1"/>
+    <col min="2051" max="2051" width="40.42578125" customWidth="1"/>
+    <col min="2052" max="2052" width="9.28515625" customWidth="1"/>
+    <col min="2053" max="2053" width="46.140625" customWidth="1"/>
+    <col min="2054" max="2054" width="55.42578125" customWidth="1"/>
+    <col min="2055" max="2055" width="29.7109375" customWidth="1"/>
+    <col min="2306" max="2306" width="23.42578125" customWidth="1"/>
+    <col min="2307" max="2307" width="40.42578125" customWidth="1"/>
+    <col min="2308" max="2308" width="9.28515625" customWidth="1"/>
+    <col min="2309" max="2309" width="46.140625" customWidth="1"/>
+    <col min="2310" max="2310" width="55.42578125" customWidth="1"/>
+    <col min="2311" max="2311" width="29.7109375" customWidth="1"/>
+    <col min="2562" max="2562" width="23.42578125" customWidth="1"/>
+    <col min="2563" max="2563" width="40.42578125" customWidth="1"/>
+    <col min="2564" max="2564" width="9.28515625" customWidth="1"/>
+    <col min="2565" max="2565" width="46.140625" customWidth="1"/>
+    <col min="2566" max="2566" width="55.42578125" customWidth="1"/>
+    <col min="2567" max="2567" width="29.7109375" customWidth="1"/>
+    <col min="2818" max="2818" width="23.42578125" customWidth="1"/>
+    <col min="2819" max="2819" width="40.42578125" customWidth="1"/>
+    <col min="2820" max="2820" width="9.28515625" customWidth="1"/>
+    <col min="2821" max="2821" width="46.140625" customWidth="1"/>
+    <col min="2822" max="2822" width="55.42578125" customWidth="1"/>
+    <col min="2823" max="2823" width="29.7109375" customWidth="1"/>
+    <col min="3074" max="3074" width="23.42578125" customWidth="1"/>
+    <col min="3075" max="3075" width="40.42578125" customWidth="1"/>
+    <col min="3076" max="3076" width="9.28515625" customWidth="1"/>
+    <col min="3077" max="3077" width="46.140625" customWidth="1"/>
+    <col min="3078" max="3078" width="55.42578125" customWidth="1"/>
+    <col min="3079" max="3079" width="29.7109375" customWidth="1"/>
+    <col min="3330" max="3330" width="23.42578125" customWidth="1"/>
+    <col min="3331" max="3331" width="40.42578125" customWidth="1"/>
+    <col min="3332" max="3332" width="9.28515625" customWidth="1"/>
+    <col min="3333" max="3333" width="46.140625" customWidth="1"/>
+    <col min="3334" max="3334" width="55.42578125" customWidth="1"/>
+    <col min="3335" max="3335" width="29.7109375" customWidth="1"/>
+    <col min="3586" max="3586" width="23.42578125" customWidth="1"/>
+    <col min="3587" max="3587" width="40.42578125" customWidth="1"/>
+    <col min="3588" max="3588" width="9.28515625" customWidth="1"/>
+    <col min="3589" max="3589" width="46.140625" customWidth="1"/>
+    <col min="3590" max="3590" width="55.42578125" customWidth="1"/>
+    <col min="3591" max="3591" width="29.7109375" customWidth="1"/>
+    <col min="3842" max="3842" width="23.42578125" customWidth="1"/>
+    <col min="3843" max="3843" width="40.42578125" customWidth="1"/>
+    <col min="3844" max="3844" width="9.28515625" customWidth="1"/>
+    <col min="3845" max="3845" width="46.140625" customWidth="1"/>
+    <col min="3846" max="3846" width="55.42578125" customWidth="1"/>
+    <col min="3847" max="3847" width="29.7109375" customWidth="1"/>
+    <col min="4098" max="4098" width="23.42578125" customWidth="1"/>
+    <col min="4099" max="4099" width="40.42578125" customWidth="1"/>
+    <col min="4100" max="4100" width="9.28515625" customWidth="1"/>
+    <col min="4101" max="4101" width="46.140625" customWidth="1"/>
+    <col min="4102" max="4102" width="55.42578125" customWidth="1"/>
+    <col min="4103" max="4103" width="29.7109375" customWidth="1"/>
+    <col min="4354" max="4354" width="23.42578125" customWidth="1"/>
+    <col min="4355" max="4355" width="40.42578125" customWidth="1"/>
+    <col min="4356" max="4356" width="9.28515625" customWidth="1"/>
+    <col min="4357" max="4357" width="46.140625" customWidth="1"/>
+    <col min="4358" max="4358" width="55.42578125" customWidth="1"/>
+    <col min="4359" max="4359" width="29.7109375" customWidth="1"/>
+    <col min="4610" max="4610" width="23.42578125" customWidth="1"/>
+    <col min="4611" max="4611" width="40.42578125" customWidth="1"/>
+    <col min="4612" max="4612" width="9.28515625" customWidth="1"/>
+    <col min="4613" max="4613" width="46.140625" customWidth="1"/>
+    <col min="4614" max="4614" width="55.42578125" customWidth="1"/>
+    <col min="4615" max="4615" width="29.7109375" customWidth="1"/>
+    <col min="4866" max="4866" width="23.42578125" customWidth="1"/>
+    <col min="4867" max="4867" width="40.42578125" customWidth="1"/>
+    <col min="4868" max="4868" width="9.28515625" customWidth="1"/>
+    <col min="4869" max="4869" width="46.140625" customWidth="1"/>
+    <col min="4870" max="4870" width="55.42578125" customWidth="1"/>
+    <col min="4871" max="4871" width="29.7109375" customWidth="1"/>
+    <col min="5122" max="5122" width="23.42578125" customWidth="1"/>
+    <col min="5123" max="5123" width="40.42578125" customWidth="1"/>
+    <col min="5124" max="5124" width="9.28515625" customWidth="1"/>
+    <col min="5125" max="5125" width="46.140625" customWidth="1"/>
+    <col min="5126" max="5126" width="55.42578125" customWidth="1"/>
+    <col min="5127" max="5127" width="29.7109375" customWidth="1"/>
+    <col min="5378" max="5378" width="23.42578125" customWidth="1"/>
+    <col min="5379" max="5379" width="40.42578125" customWidth="1"/>
+    <col min="5380" max="5380" width="9.28515625" customWidth="1"/>
+    <col min="5381" max="5381" width="46.140625" customWidth="1"/>
+    <col min="5382" max="5382" width="55.42578125" customWidth="1"/>
+    <col min="5383" max="5383" width="29.7109375" customWidth="1"/>
+    <col min="5634" max="5634" width="23.42578125" customWidth="1"/>
+    <col min="5635" max="5635" width="40.42578125" customWidth="1"/>
+    <col min="5636" max="5636" width="9.28515625" customWidth="1"/>
+    <col min="5637" max="5637" width="46.140625" customWidth="1"/>
+    <col min="5638" max="5638" width="55.42578125" customWidth="1"/>
+    <col min="5639" max="5639" width="29.7109375" customWidth="1"/>
+    <col min="5890" max="5890" width="23.42578125" customWidth="1"/>
+    <col min="5891" max="5891" width="40.42578125" customWidth="1"/>
+    <col min="5892" max="5892" width="9.28515625" customWidth="1"/>
+    <col min="5893" max="5893" width="46.140625" customWidth="1"/>
+    <col min="5894" max="5894" width="55.42578125" customWidth="1"/>
+    <col min="5895" max="5895" width="29.7109375" customWidth="1"/>
+    <col min="6146" max="6146" width="23.42578125" customWidth="1"/>
+    <col min="6147" max="6147" width="40.42578125" customWidth="1"/>
+    <col min="6148" max="6148" width="9.28515625" customWidth="1"/>
+    <col min="6149" max="6149" width="46.140625" customWidth="1"/>
+    <col min="6150" max="6150" width="55.42578125" customWidth="1"/>
+    <col min="6151" max="6151" width="29.7109375" customWidth="1"/>
+    <col min="6402" max="6402" width="23.42578125" customWidth="1"/>
+    <col min="6403" max="6403" width="40.42578125" customWidth="1"/>
+    <col min="6404" max="6404" width="9.28515625" customWidth="1"/>
+    <col min="6405" max="6405" width="46.140625" customWidth="1"/>
+    <col min="6406" max="6406" width="55.42578125" customWidth="1"/>
+    <col min="6407" max="6407" width="29.7109375" customWidth="1"/>
+    <col min="6658" max="6658" width="23.42578125" customWidth="1"/>
+    <col min="6659" max="6659" width="40.42578125" customWidth="1"/>
+    <col min="6660" max="6660" width="9.28515625" customWidth="1"/>
+    <col min="6661" max="6661" width="46.140625" customWidth="1"/>
+    <col min="6662" max="6662" width="55.42578125" customWidth="1"/>
+    <col min="6663" max="6663" width="29.7109375" customWidth="1"/>
+    <col min="6914" max="6914" width="23.42578125" customWidth="1"/>
+    <col min="6915" max="6915" width="40.42578125" customWidth="1"/>
+    <col min="6916" max="6916" width="9.28515625" customWidth="1"/>
+    <col min="6917" max="6917" width="46.140625" customWidth="1"/>
+    <col min="6918" max="6918" width="55.42578125" customWidth="1"/>
+    <col min="6919" max="6919" width="29.7109375" customWidth="1"/>
+    <col min="7170" max="7170" width="23.42578125" customWidth="1"/>
+    <col min="7171" max="7171" width="40.42578125" customWidth="1"/>
+    <col min="7172" max="7172" width="9.28515625" customWidth="1"/>
+    <col min="7173" max="7173" width="46.140625" customWidth="1"/>
+    <col min="7174" max="7174" width="55.42578125" customWidth="1"/>
+    <col min="7175" max="7175" width="29.7109375" customWidth="1"/>
+    <col min="7426" max="7426" width="23.42578125" customWidth="1"/>
+    <col min="7427" max="7427" width="40.42578125" customWidth="1"/>
+    <col min="7428" max="7428" width="9.28515625" customWidth="1"/>
+    <col min="7429" max="7429" width="46.140625" customWidth="1"/>
+    <col min="7430" max="7430" width="55.42578125" customWidth="1"/>
+    <col min="7431" max="7431" width="29.7109375" customWidth="1"/>
+    <col min="7682" max="7682" width="23.42578125" customWidth="1"/>
+    <col min="7683" max="7683" width="40.42578125" customWidth="1"/>
+    <col min="7684" max="7684" width="9.28515625" customWidth="1"/>
+    <col min="7685" max="7685" width="46.140625" customWidth="1"/>
+    <col min="7686" max="7686" width="55.42578125" customWidth="1"/>
+    <col min="7687" max="7687" width="29.7109375" customWidth="1"/>
+    <col min="7938" max="7938" width="23.42578125" customWidth="1"/>
+    <col min="7939" max="7939" width="40.42578125" customWidth="1"/>
+    <col min="7940" max="7940" width="9.28515625" customWidth="1"/>
+    <col min="7941" max="7941" width="46.140625" customWidth="1"/>
+    <col min="7942" max="7942" width="55.42578125" customWidth="1"/>
+    <col min="7943" max="7943" width="29.7109375" customWidth="1"/>
+    <col min="8194" max="8194" width="23.42578125" customWidth="1"/>
+    <col min="8195" max="8195" width="40.42578125" customWidth="1"/>
+    <col min="8196" max="8196" width="9.28515625" customWidth="1"/>
+    <col min="8197" max="8197" width="46.140625" customWidth="1"/>
+    <col min="8198" max="8198" width="55.42578125" customWidth="1"/>
+    <col min="8199" max="8199" width="29.7109375" customWidth="1"/>
+    <col min="8450" max="8450" width="23.42578125" customWidth="1"/>
+    <col min="8451" max="8451" width="40.42578125" customWidth="1"/>
+    <col min="8452" max="8452" width="9.28515625" customWidth="1"/>
+    <col min="8453" max="8453" width="46.140625" customWidth="1"/>
+    <col min="8454" max="8454" width="55.42578125" customWidth="1"/>
+    <col min="8455" max="8455" width="29.7109375" customWidth="1"/>
+    <col min="8706" max="8706" width="23.42578125" customWidth="1"/>
+    <col min="8707" max="8707" width="40.42578125" customWidth="1"/>
+    <col min="8708" max="8708" width="9.28515625" customWidth="1"/>
+    <col min="8709" max="8709" width="46.140625" customWidth="1"/>
+    <col min="8710" max="8710" width="55.42578125" customWidth="1"/>
+    <col min="8711" max="8711" width="29.7109375" customWidth="1"/>
+    <col min="8962" max="8962" width="23.42578125" customWidth="1"/>
+    <col min="8963" max="8963" width="40.42578125" customWidth="1"/>
+    <col min="8964" max="8964" width="9.28515625" customWidth="1"/>
+    <col min="8965" max="8965" width="46.140625" customWidth="1"/>
+    <col min="8966" max="8966" width="55.42578125" customWidth="1"/>
+    <col min="8967" max="8967" width="29.7109375" customWidth="1"/>
+    <col min="9218" max="9218" width="23.42578125" customWidth="1"/>
+    <col min="9219" max="9219" width="40.42578125" customWidth="1"/>
+    <col min="9220" max="9220" width="9.28515625" customWidth="1"/>
+    <col min="9221" max="9221" width="46.140625" customWidth="1"/>
+    <col min="9222" max="9222" width="55.42578125" customWidth="1"/>
+    <col min="9223" max="9223" width="29.7109375" customWidth="1"/>
+    <col min="9474" max="9474" width="23.42578125" customWidth="1"/>
+    <col min="9475" max="9475" width="40.42578125" customWidth="1"/>
+    <col min="9476" max="9476" width="9.28515625" customWidth="1"/>
+    <col min="9477" max="9477" width="46.140625" customWidth="1"/>
+    <col min="9478" max="9478" width="55.42578125" customWidth="1"/>
+    <col min="9479" max="9479" width="29.7109375" customWidth="1"/>
+    <col min="9730" max="9730" width="23.42578125" customWidth="1"/>
+    <col min="9731" max="9731" width="40.42578125" customWidth="1"/>
+    <col min="9732" max="9732" width="9.28515625" customWidth="1"/>
+    <col min="9733" max="9733" width="46.140625" customWidth="1"/>
+    <col min="9734" max="9734" width="55.42578125" customWidth="1"/>
+    <col min="9735" max="9735" width="29.7109375" customWidth="1"/>
+    <col min="9986" max="9986" width="23.42578125" customWidth="1"/>
+    <col min="9987" max="9987" width="40.42578125" customWidth="1"/>
+    <col min="9988" max="9988" width="9.28515625" customWidth="1"/>
+    <col min="9989" max="9989" width="46.140625" customWidth="1"/>
+    <col min="9990" max="9990" width="55.42578125" customWidth="1"/>
+    <col min="9991" max="9991" width="29.7109375" customWidth="1"/>
+    <col min="10242" max="10242" width="23.42578125" customWidth="1"/>
+    <col min="10243" max="10243" width="40.42578125" customWidth="1"/>
+    <col min="10244" max="10244" width="9.28515625" customWidth="1"/>
+    <col min="10245" max="10245" width="46.140625" customWidth="1"/>
+    <col min="10246" max="10246" width="55.42578125" customWidth="1"/>
+    <col min="10247" max="10247" width="29.7109375" customWidth="1"/>
+    <col min="10498" max="10498" width="23.42578125" customWidth="1"/>
+    <col min="10499" max="10499" width="40.42578125" customWidth="1"/>
+    <col min="10500" max="10500" width="9.28515625" customWidth="1"/>
+    <col min="10501" max="10501" width="46.140625" customWidth="1"/>
+    <col min="10502" max="10502" width="55.42578125" customWidth="1"/>
+    <col min="10503" max="10503" width="29.7109375" customWidth="1"/>
+    <col min="10754" max="10754" width="23.42578125" customWidth="1"/>
+    <col min="10755" max="10755" width="40.42578125" customWidth="1"/>
+    <col min="10756" max="10756" width="9.28515625" customWidth="1"/>
+    <col min="10757" max="10757" width="46.140625" customWidth="1"/>
+    <col min="10758" max="10758" width="55.42578125" customWidth="1"/>
+    <col min="10759" max="10759" width="29.7109375" customWidth="1"/>
+    <col min="11010" max="11010" width="23.42578125" customWidth="1"/>
+    <col min="11011" max="11011" width="40.42578125" customWidth="1"/>
+    <col min="11012" max="11012" width="9.28515625" customWidth="1"/>
+    <col min="11013" max="11013" width="46.140625" customWidth="1"/>
+    <col min="11014" max="11014" width="55.42578125" customWidth="1"/>
+    <col min="11015" max="11015" width="29.7109375" customWidth="1"/>
+    <col min="11266" max="11266" width="23.42578125" customWidth="1"/>
+    <col min="11267" max="11267" width="40.42578125" customWidth="1"/>
+    <col min="11268" max="11268" width="9.28515625" customWidth="1"/>
+    <col min="11269" max="11269" width="46.140625" customWidth="1"/>
+    <col min="11270" max="11270" width="55.42578125" customWidth="1"/>
+    <col min="11271" max="11271" width="29.7109375" customWidth="1"/>
+    <col min="11522" max="11522" width="23.42578125" customWidth="1"/>
+    <col min="11523" max="11523" width="40.42578125" customWidth="1"/>
+    <col min="11524" max="11524" width="9.28515625" customWidth="1"/>
+    <col min="11525" max="11525" width="46.140625" customWidth="1"/>
+    <col min="11526" max="11526" width="55.42578125" customWidth="1"/>
+    <col min="11527" max="11527" width="29.7109375" customWidth="1"/>
+    <col min="11778" max="11778" width="23.42578125" customWidth="1"/>
+    <col min="11779" max="11779" width="40.42578125" customWidth="1"/>
+    <col min="11780" max="11780" width="9.28515625" customWidth="1"/>
+    <col min="11781" max="11781" width="46.140625" customWidth="1"/>
+    <col min="11782" max="11782" width="55.42578125" customWidth="1"/>
+    <col min="11783" max="11783" width="29.7109375" customWidth="1"/>
+    <col min="12034" max="12034" width="23.42578125" customWidth="1"/>
+    <col min="12035" max="12035" width="40.42578125" customWidth="1"/>
+    <col min="12036" max="12036" width="9.28515625" customWidth="1"/>
+    <col min="12037" max="12037" width="46.140625" customWidth="1"/>
+    <col min="12038" max="12038" width="55.42578125" customWidth="1"/>
+    <col min="12039" max="12039" width="29.7109375" customWidth="1"/>
+    <col min="12290" max="12290" width="23.42578125" customWidth="1"/>
+    <col min="12291" max="12291" width="40.42578125" customWidth="1"/>
+    <col min="12292" max="12292" width="9.28515625" customWidth="1"/>
+    <col min="12293" max="12293" width="46.140625" customWidth="1"/>
+    <col min="12294" max="12294" width="55.42578125" customWidth="1"/>
+    <col min="12295" max="12295" width="29.7109375" customWidth="1"/>
+    <col min="12546" max="12546" width="23.42578125" customWidth="1"/>
+    <col min="12547" max="12547" width="40.42578125" customWidth="1"/>
+    <col min="12548" max="12548" width="9.28515625" customWidth="1"/>
+    <col min="12549" max="12549" width="46.140625" customWidth="1"/>
+    <col min="12550" max="12550" width="55.42578125" customWidth="1"/>
+    <col min="12551" max="12551" width="29.7109375" customWidth="1"/>
+    <col min="12802" max="12802" width="23.42578125" customWidth="1"/>
+    <col min="12803" max="12803" width="40.42578125" customWidth="1"/>
+    <col min="12804" max="12804" width="9.28515625" customWidth="1"/>
+    <col min="12805" max="12805" width="46.140625" customWidth="1"/>
+    <col min="12806" max="12806" width="55.42578125" customWidth="1"/>
+    <col min="12807" max="12807" width="29.7109375" customWidth="1"/>
+    <col min="13058" max="13058" width="23.42578125" customWidth="1"/>
+    <col min="13059" max="13059" width="40.42578125" customWidth="1"/>
+    <col min="13060" max="13060" width="9.28515625" customWidth="1"/>
+    <col min="13061" max="13061" width="46.140625" customWidth="1"/>
+    <col min="13062" max="13062" width="55.42578125" customWidth="1"/>
+    <col min="13063" max="13063" width="29.7109375" customWidth="1"/>
+    <col min="13314" max="13314" width="23.42578125" customWidth="1"/>
+    <col min="13315" max="13315" width="40.42578125" customWidth="1"/>
+    <col min="13316" max="13316" width="9.28515625" customWidth="1"/>
+    <col min="13317" max="13317" width="46.140625" customWidth="1"/>
+    <col min="13318" max="13318" width="55.42578125" customWidth="1"/>
+    <col min="13319" max="13319" width="29.7109375" customWidth="1"/>
+    <col min="13570" max="13570" width="23.42578125" customWidth="1"/>
+    <col min="13571" max="13571" width="40.42578125" customWidth="1"/>
+    <col min="13572" max="13572" width="9.28515625" customWidth="1"/>
+    <col min="13573" max="13573" width="46.140625" customWidth="1"/>
+    <col min="13574" max="13574" width="55.42578125" customWidth="1"/>
+    <col min="13575" max="13575" width="29.7109375" customWidth="1"/>
+    <col min="13826" max="13826" width="23.42578125" customWidth="1"/>
+    <col min="13827" max="13827" width="40.42578125" customWidth="1"/>
+    <col min="13828" max="13828" width="9.28515625" customWidth="1"/>
+    <col min="13829" max="13829" width="46.140625" customWidth="1"/>
+    <col min="13830" max="13830" width="55.42578125" customWidth="1"/>
+    <col min="13831" max="13831" width="29.7109375" customWidth="1"/>
+    <col min="14082" max="14082" width="23.42578125" customWidth="1"/>
+    <col min="14083" max="14083" width="40.42578125" customWidth="1"/>
+    <col min="14084" max="14084" width="9.28515625" customWidth="1"/>
+    <col min="14085" max="14085" width="46.140625" customWidth="1"/>
+    <col min="14086" max="14086" width="55.42578125" customWidth="1"/>
+    <col min="14087" max="14087" width="29.7109375" customWidth="1"/>
+    <col min="14338" max="14338" width="23.42578125" customWidth="1"/>
+    <col min="14339" max="14339" width="40.42578125" customWidth="1"/>
+    <col min="14340" max="14340" width="9.28515625" customWidth="1"/>
+    <col min="14341" max="14341" width="46.140625" customWidth="1"/>
+    <col min="14342" max="14342" width="55.42578125" customWidth="1"/>
+    <col min="14343" max="14343" width="29.7109375" customWidth="1"/>
+    <col min="14594" max="14594" width="23.42578125" customWidth="1"/>
+    <col min="14595" max="14595" width="40.42578125" customWidth="1"/>
+    <col min="14596" max="14596" width="9.28515625" customWidth="1"/>
+    <col min="14597" max="14597" width="46.140625" customWidth="1"/>
+    <col min="14598" max="14598" width="55.42578125" customWidth="1"/>
+    <col min="14599" max="14599" width="29.7109375" customWidth="1"/>
+    <col min="14850" max="14850" width="23.42578125" customWidth="1"/>
+    <col min="14851" max="14851" width="40.42578125" customWidth="1"/>
+    <col min="14852" max="14852" width="9.28515625" customWidth="1"/>
+    <col min="14853" max="14853" width="46.140625" customWidth="1"/>
+    <col min="14854" max="14854" width="55.42578125" customWidth="1"/>
+    <col min="14855" max="14855" width="29.7109375" customWidth="1"/>
+    <col min="15106" max="15106" width="23.42578125" customWidth="1"/>
+    <col min="15107" max="15107" width="40.42578125" customWidth="1"/>
+    <col min="15108" max="15108" width="9.28515625" customWidth="1"/>
+    <col min="15109" max="15109" width="46.140625" customWidth="1"/>
+    <col min="15110" max="15110" width="55.42578125" customWidth="1"/>
+    <col min="15111" max="15111" width="29.7109375" customWidth="1"/>
+    <col min="15362" max="15362" width="23.42578125" customWidth="1"/>
+    <col min="15363" max="15363" width="40.42578125" customWidth="1"/>
+    <col min="15364" max="15364" width="9.28515625" customWidth="1"/>
+    <col min="15365" max="15365" width="46.140625" customWidth="1"/>
+    <col min="15366" max="15366" width="55.42578125" customWidth="1"/>
+    <col min="15367" max="15367" width="29.7109375" customWidth="1"/>
+    <col min="15618" max="15618" width="23.42578125" customWidth="1"/>
+    <col min="15619" max="15619" width="40.42578125" customWidth="1"/>
+    <col min="15620" max="15620" width="9.28515625" customWidth="1"/>
+    <col min="15621" max="15621" width="46.140625" customWidth="1"/>
+    <col min="15622" max="15622" width="55.42578125" customWidth="1"/>
+    <col min="15623" max="15623" width="29.7109375" customWidth="1"/>
+    <col min="15874" max="15874" width="23.42578125" customWidth="1"/>
+    <col min="15875" max="15875" width="40.42578125" customWidth="1"/>
+    <col min="15876" max="15876" width="9.28515625" customWidth="1"/>
+    <col min="15877" max="15877" width="46.140625" customWidth="1"/>
+    <col min="15878" max="15878" width="55.42578125" customWidth="1"/>
+    <col min="15879" max="15879" width="29.7109375" customWidth="1"/>
+    <col min="16130" max="16130" width="23.42578125" customWidth="1"/>
+    <col min="16131" max="16131" width="40.42578125" customWidth="1"/>
+    <col min="16132" max="16132" width="9.28515625" customWidth="1"/>
+    <col min="16133" max="16133" width="46.140625" customWidth="1"/>
+    <col min="16134" max="16134" width="55.42578125" customWidth="1"/>
+    <col min="16135" max="16135" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="60" customHeight="1"/>
-    <row r="2" spans="2:6" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:6" ht="11.4" thickBot="1"/>
     <row r="3" spans="2:6" ht="15.6" customHeight="1">
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="232" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="236"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="234"/>
     </row>
     <row r="4" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="238" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="242"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="240"/>
     </row>
     <row r="5" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B5" s="240" t="str">
+      <c r="B5" s="238" t="str">
         <f>"veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en"</f>
         <v>veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en</v>
       </c>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="242"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="240"/>
     </row>
     <row r="6" spans="2:6" s="30" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B6" s="240" t="s">
+      <c r="B6" s="238" t="s">
         <v>291</v>
       </c>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="242"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="240"/>
     </row>
     <row r="7" spans="2:6" ht="42.6" customHeight="1">
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="235" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="239"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="237"/>
     </row>
     <row r="8" spans="2:6" ht="33" customHeight="1">
-      <c r="B8" s="237" t="s">
+      <c r="B8" s="235" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="239"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="237"/>
     </row>
     <row r="9" spans="2:6" ht="57.75" customHeight="1">
-      <c r="B9" s="240" t="s">
+      <c r="B9" s="238" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="242"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="240"/>
     </row>
     <row r="10" spans="2:6" ht="54.75" customHeight="1">
-      <c r="B10" s="240" t="s">
+      <c r="B10" s="238" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="242"/>
+      <c r="C10" s="239"/>
+      <c r="D10" s="239"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="240"/>
     </row>
     <row r="11" spans="2:6" ht="150" customHeight="1" thickBot="1">
-      <c r="B11" s="231" t="s">
+      <c r="B11" s="229" t="s">
         <v>281</v>
       </c>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="233"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="230"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="231"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="20"/>
@@ -7907,7 +7904,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="14" spans="2:6" ht="14.25">
+    <row r="14" spans="2:6" ht="13.2">
       <c r="B14" s="56" t="s">
         <v>108</v>
       </c>
@@ -7919,11 +7916,11 @@
       <c r="B15" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="230" t="s">
+      <c r="C15" s="228" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="228"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="37" t="s">
@@ -8009,400 +8006,398 @@
   </sheetPr>
   <dimension ref="B4:F110"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="76.6640625" customWidth="1"/>
-    <col min="6" max="6" width="50.5" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="258" max="258" width="23.5" customWidth="1"/>
-    <col min="259" max="259" width="40.5" customWidth="1"/>
-    <col min="260" max="260" width="9.33203125" customWidth="1"/>
-    <col min="261" max="261" width="46.1640625" customWidth="1"/>
-    <col min="262" max="262" width="55.5" customWidth="1"/>
-    <col min="263" max="263" width="29.6640625" customWidth="1"/>
-    <col min="514" max="514" width="23.5" customWidth="1"/>
-    <col min="515" max="515" width="40.5" customWidth="1"/>
-    <col min="516" max="516" width="9.33203125" customWidth="1"/>
-    <col min="517" max="517" width="46.1640625" customWidth="1"/>
-    <col min="518" max="518" width="55.5" customWidth="1"/>
-    <col min="519" max="519" width="29.6640625" customWidth="1"/>
-    <col min="770" max="770" width="23.5" customWidth="1"/>
-    <col min="771" max="771" width="40.5" customWidth="1"/>
-    <col min="772" max="772" width="9.33203125" customWidth="1"/>
-    <col min="773" max="773" width="46.1640625" customWidth="1"/>
-    <col min="774" max="774" width="55.5" customWidth="1"/>
-    <col min="775" max="775" width="29.6640625" customWidth="1"/>
-    <col min="1026" max="1026" width="23.5" customWidth="1"/>
-    <col min="1027" max="1027" width="40.5" customWidth="1"/>
-    <col min="1028" max="1028" width="9.33203125" customWidth="1"/>
-    <col min="1029" max="1029" width="46.1640625" customWidth="1"/>
-    <col min="1030" max="1030" width="55.5" customWidth="1"/>
-    <col min="1031" max="1031" width="29.6640625" customWidth="1"/>
-    <col min="1282" max="1282" width="23.5" customWidth="1"/>
-    <col min="1283" max="1283" width="40.5" customWidth="1"/>
-    <col min="1284" max="1284" width="9.33203125" customWidth="1"/>
-    <col min="1285" max="1285" width="46.1640625" customWidth="1"/>
-    <col min="1286" max="1286" width="55.5" customWidth="1"/>
-    <col min="1287" max="1287" width="29.6640625" customWidth="1"/>
-    <col min="1538" max="1538" width="23.5" customWidth="1"/>
-    <col min="1539" max="1539" width="40.5" customWidth="1"/>
-    <col min="1540" max="1540" width="9.33203125" customWidth="1"/>
-    <col min="1541" max="1541" width="46.1640625" customWidth="1"/>
-    <col min="1542" max="1542" width="55.5" customWidth="1"/>
-    <col min="1543" max="1543" width="29.6640625" customWidth="1"/>
-    <col min="1794" max="1794" width="23.5" customWidth="1"/>
-    <col min="1795" max="1795" width="40.5" customWidth="1"/>
-    <col min="1796" max="1796" width="9.33203125" customWidth="1"/>
-    <col min="1797" max="1797" width="46.1640625" customWidth="1"/>
-    <col min="1798" max="1798" width="55.5" customWidth="1"/>
-    <col min="1799" max="1799" width="29.6640625" customWidth="1"/>
-    <col min="2050" max="2050" width="23.5" customWidth="1"/>
-    <col min="2051" max="2051" width="40.5" customWidth="1"/>
-    <col min="2052" max="2052" width="9.33203125" customWidth="1"/>
-    <col min="2053" max="2053" width="46.1640625" customWidth="1"/>
-    <col min="2054" max="2054" width="55.5" customWidth="1"/>
-    <col min="2055" max="2055" width="29.6640625" customWidth="1"/>
-    <col min="2306" max="2306" width="23.5" customWidth="1"/>
-    <col min="2307" max="2307" width="40.5" customWidth="1"/>
-    <col min="2308" max="2308" width="9.33203125" customWidth="1"/>
-    <col min="2309" max="2309" width="46.1640625" customWidth="1"/>
-    <col min="2310" max="2310" width="55.5" customWidth="1"/>
-    <col min="2311" max="2311" width="29.6640625" customWidth="1"/>
-    <col min="2562" max="2562" width="23.5" customWidth="1"/>
-    <col min="2563" max="2563" width="40.5" customWidth="1"/>
-    <col min="2564" max="2564" width="9.33203125" customWidth="1"/>
-    <col min="2565" max="2565" width="46.1640625" customWidth="1"/>
-    <col min="2566" max="2566" width="55.5" customWidth="1"/>
-    <col min="2567" max="2567" width="29.6640625" customWidth="1"/>
-    <col min="2818" max="2818" width="23.5" customWidth="1"/>
-    <col min="2819" max="2819" width="40.5" customWidth="1"/>
-    <col min="2820" max="2820" width="9.33203125" customWidth="1"/>
-    <col min="2821" max="2821" width="46.1640625" customWidth="1"/>
-    <col min="2822" max="2822" width="55.5" customWidth="1"/>
-    <col min="2823" max="2823" width="29.6640625" customWidth="1"/>
-    <col min="3074" max="3074" width="23.5" customWidth="1"/>
-    <col min="3075" max="3075" width="40.5" customWidth="1"/>
-    <col min="3076" max="3076" width="9.33203125" customWidth="1"/>
-    <col min="3077" max="3077" width="46.1640625" customWidth="1"/>
-    <col min="3078" max="3078" width="55.5" customWidth="1"/>
-    <col min="3079" max="3079" width="29.6640625" customWidth="1"/>
-    <col min="3330" max="3330" width="23.5" customWidth="1"/>
-    <col min="3331" max="3331" width="40.5" customWidth="1"/>
-    <col min="3332" max="3332" width="9.33203125" customWidth="1"/>
-    <col min="3333" max="3333" width="46.1640625" customWidth="1"/>
-    <col min="3334" max="3334" width="55.5" customWidth="1"/>
-    <col min="3335" max="3335" width="29.6640625" customWidth="1"/>
-    <col min="3586" max="3586" width="23.5" customWidth="1"/>
-    <col min="3587" max="3587" width="40.5" customWidth="1"/>
-    <col min="3588" max="3588" width="9.33203125" customWidth="1"/>
-    <col min="3589" max="3589" width="46.1640625" customWidth="1"/>
-    <col min="3590" max="3590" width="55.5" customWidth="1"/>
-    <col min="3591" max="3591" width="29.6640625" customWidth="1"/>
-    <col min="3842" max="3842" width="23.5" customWidth="1"/>
-    <col min="3843" max="3843" width="40.5" customWidth="1"/>
-    <col min="3844" max="3844" width="9.33203125" customWidth="1"/>
-    <col min="3845" max="3845" width="46.1640625" customWidth="1"/>
-    <col min="3846" max="3846" width="55.5" customWidth="1"/>
-    <col min="3847" max="3847" width="29.6640625" customWidth="1"/>
-    <col min="4098" max="4098" width="23.5" customWidth="1"/>
-    <col min="4099" max="4099" width="40.5" customWidth="1"/>
-    <col min="4100" max="4100" width="9.33203125" customWidth="1"/>
-    <col min="4101" max="4101" width="46.1640625" customWidth="1"/>
-    <col min="4102" max="4102" width="55.5" customWidth="1"/>
-    <col min="4103" max="4103" width="29.6640625" customWidth="1"/>
-    <col min="4354" max="4354" width="23.5" customWidth="1"/>
-    <col min="4355" max="4355" width="40.5" customWidth="1"/>
-    <col min="4356" max="4356" width="9.33203125" customWidth="1"/>
-    <col min="4357" max="4357" width="46.1640625" customWidth="1"/>
-    <col min="4358" max="4358" width="55.5" customWidth="1"/>
-    <col min="4359" max="4359" width="29.6640625" customWidth="1"/>
-    <col min="4610" max="4610" width="23.5" customWidth="1"/>
-    <col min="4611" max="4611" width="40.5" customWidth="1"/>
-    <col min="4612" max="4612" width="9.33203125" customWidth="1"/>
-    <col min="4613" max="4613" width="46.1640625" customWidth="1"/>
-    <col min="4614" max="4614" width="55.5" customWidth="1"/>
-    <col min="4615" max="4615" width="29.6640625" customWidth="1"/>
-    <col min="4866" max="4866" width="23.5" customWidth="1"/>
-    <col min="4867" max="4867" width="40.5" customWidth="1"/>
-    <col min="4868" max="4868" width="9.33203125" customWidth="1"/>
-    <col min="4869" max="4869" width="46.1640625" customWidth="1"/>
-    <col min="4870" max="4870" width="55.5" customWidth="1"/>
-    <col min="4871" max="4871" width="29.6640625" customWidth="1"/>
-    <col min="5122" max="5122" width="23.5" customWidth="1"/>
-    <col min="5123" max="5123" width="40.5" customWidth="1"/>
-    <col min="5124" max="5124" width="9.33203125" customWidth="1"/>
-    <col min="5125" max="5125" width="46.1640625" customWidth="1"/>
-    <col min="5126" max="5126" width="55.5" customWidth="1"/>
-    <col min="5127" max="5127" width="29.6640625" customWidth="1"/>
-    <col min="5378" max="5378" width="23.5" customWidth="1"/>
-    <col min="5379" max="5379" width="40.5" customWidth="1"/>
-    <col min="5380" max="5380" width="9.33203125" customWidth="1"/>
-    <col min="5381" max="5381" width="46.1640625" customWidth="1"/>
-    <col min="5382" max="5382" width="55.5" customWidth="1"/>
-    <col min="5383" max="5383" width="29.6640625" customWidth="1"/>
-    <col min="5634" max="5634" width="23.5" customWidth="1"/>
-    <col min="5635" max="5635" width="40.5" customWidth="1"/>
-    <col min="5636" max="5636" width="9.33203125" customWidth="1"/>
-    <col min="5637" max="5637" width="46.1640625" customWidth="1"/>
-    <col min="5638" max="5638" width="55.5" customWidth="1"/>
-    <col min="5639" max="5639" width="29.6640625" customWidth="1"/>
-    <col min="5890" max="5890" width="23.5" customWidth="1"/>
-    <col min="5891" max="5891" width="40.5" customWidth="1"/>
-    <col min="5892" max="5892" width="9.33203125" customWidth="1"/>
-    <col min="5893" max="5893" width="46.1640625" customWidth="1"/>
-    <col min="5894" max="5894" width="55.5" customWidth="1"/>
-    <col min="5895" max="5895" width="29.6640625" customWidth="1"/>
-    <col min="6146" max="6146" width="23.5" customWidth="1"/>
-    <col min="6147" max="6147" width="40.5" customWidth="1"/>
-    <col min="6148" max="6148" width="9.33203125" customWidth="1"/>
-    <col min="6149" max="6149" width="46.1640625" customWidth="1"/>
-    <col min="6150" max="6150" width="55.5" customWidth="1"/>
-    <col min="6151" max="6151" width="29.6640625" customWidth="1"/>
-    <col min="6402" max="6402" width="23.5" customWidth="1"/>
-    <col min="6403" max="6403" width="40.5" customWidth="1"/>
-    <col min="6404" max="6404" width="9.33203125" customWidth="1"/>
-    <col min="6405" max="6405" width="46.1640625" customWidth="1"/>
-    <col min="6406" max="6406" width="55.5" customWidth="1"/>
-    <col min="6407" max="6407" width="29.6640625" customWidth="1"/>
-    <col min="6658" max="6658" width="23.5" customWidth="1"/>
-    <col min="6659" max="6659" width="40.5" customWidth="1"/>
-    <col min="6660" max="6660" width="9.33203125" customWidth="1"/>
-    <col min="6661" max="6661" width="46.1640625" customWidth="1"/>
-    <col min="6662" max="6662" width="55.5" customWidth="1"/>
-    <col min="6663" max="6663" width="29.6640625" customWidth="1"/>
-    <col min="6914" max="6914" width="23.5" customWidth="1"/>
-    <col min="6915" max="6915" width="40.5" customWidth="1"/>
-    <col min="6916" max="6916" width="9.33203125" customWidth="1"/>
-    <col min="6917" max="6917" width="46.1640625" customWidth="1"/>
-    <col min="6918" max="6918" width="55.5" customWidth="1"/>
-    <col min="6919" max="6919" width="29.6640625" customWidth="1"/>
-    <col min="7170" max="7170" width="23.5" customWidth="1"/>
-    <col min="7171" max="7171" width="40.5" customWidth="1"/>
-    <col min="7172" max="7172" width="9.33203125" customWidth="1"/>
-    <col min="7173" max="7173" width="46.1640625" customWidth="1"/>
-    <col min="7174" max="7174" width="55.5" customWidth="1"/>
-    <col min="7175" max="7175" width="29.6640625" customWidth="1"/>
-    <col min="7426" max="7426" width="23.5" customWidth="1"/>
-    <col min="7427" max="7427" width="40.5" customWidth="1"/>
-    <col min="7428" max="7428" width="9.33203125" customWidth="1"/>
-    <col min="7429" max="7429" width="46.1640625" customWidth="1"/>
-    <col min="7430" max="7430" width="55.5" customWidth="1"/>
-    <col min="7431" max="7431" width="29.6640625" customWidth="1"/>
-    <col min="7682" max="7682" width="23.5" customWidth="1"/>
-    <col min="7683" max="7683" width="40.5" customWidth="1"/>
-    <col min="7684" max="7684" width="9.33203125" customWidth="1"/>
-    <col min="7685" max="7685" width="46.1640625" customWidth="1"/>
-    <col min="7686" max="7686" width="55.5" customWidth="1"/>
-    <col min="7687" max="7687" width="29.6640625" customWidth="1"/>
-    <col min="7938" max="7938" width="23.5" customWidth="1"/>
-    <col min="7939" max="7939" width="40.5" customWidth="1"/>
-    <col min="7940" max="7940" width="9.33203125" customWidth="1"/>
-    <col min="7941" max="7941" width="46.1640625" customWidth="1"/>
-    <col min="7942" max="7942" width="55.5" customWidth="1"/>
-    <col min="7943" max="7943" width="29.6640625" customWidth="1"/>
-    <col min="8194" max="8194" width="23.5" customWidth="1"/>
-    <col min="8195" max="8195" width="40.5" customWidth="1"/>
-    <col min="8196" max="8196" width="9.33203125" customWidth="1"/>
-    <col min="8197" max="8197" width="46.1640625" customWidth="1"/>
-    <col min="8198" max="8198" width="55.5" customWidth="1"/>
-    <col min="8199" max="8199" width="29.6640625" customWidth="1"/>
-    <col min="8450" max="8450" width="23.5" customWidth="1"/>
-    <col min="8451" max="8451" width="40.5" customWidth="1"/>
-    <col min="8452" max="8452" width="9.33203125" customWidth="1"/>
-    <col min="8453" max="8453" width="46.1640625" customWidth="1"/>
-    <col min="8454" max="8454" width="55.5" customWidth="1"/>
-    <col min="8455" max="8455" width="29.6640625" customWidth="1"/>
-    <col min="8706" max="8706" width="23.5" customWidth="1"/>
-    <col min="8707" max="8707" width="40.5" customWidth="1"/>
-    <col min="8708" max="8708" width="9.33203125" customWidth="1"/>
-    <col min="8709" max="8709" width="46.1640625" customWidth="1"/>
-    <col min="8710" max="8710" width="55.5" customWidth="1"/>
-    <col min="8711" max="8711" width="29.6640625" customWidth="1"/>
-    <col min="8962" max="8962" width="23.5" customWidth="1"/>
-    <col min="8963" max="8963" width="40.5" customWidth="1"/>
-    <col min="8964" max="8964" width="9.33203125" customWidth="1"/>
-    <col min="8965" max="8965" width="46.1640625" customWidth="1"/>
-    <col min="8966" max="8966" width="55.5" customWidth="1"/>
-    <col min="8967" max="8967" width="29.6640625" customWidth="1"/>
-    <col min="9218" max="9218" width="23.5" customWidth="1"/>
-    <col min="9219" max="9219" width="40.5" customWidth="1"/>
-    <col min="9220" max="9220" width="9.33203125" customWidth="1"/>
-    <col min="9221" max="9221" width="46.1640625" customWidth="1"/>
-    <col min="9222" max="9222" width="55.5" customWidth="1"/>
-    <col min="9223" max="9223" width="29.6640625" customWidth="1"/>
-    <col min="9474" max="9474" width="23.5" customWidth="1"/>
-    <col min="9475" max="9475" width="40.5" customWidth="1"/>
-    <col min="9476" max="9476" width="9.33203125" customWidth="1"/>
-    <col min="9477" max="9477" width="46.1640625" customWidth="1"/>
-    <col min="9478" max="9478" width="55.5" customWidth="1"/>
-    <col min="9479" max="9479" width="29.6640625" customWidth="1"/>
-    <col min="9730" max="9730" width="23.5" customWidth="1"/>
-    <col min="9731" max="9731" width="40.5" customWidth="1"/>
-    <col min="9732" max="9732" width="9.33203125" customWidth="1"/>
-    <col min="9733" max="9733" width="46.1640625" customWidth="1"/>
-    <col min="9734" max="9734" width="55.5" customWidth="1"/>
-    <col min="9735" max="9735" width="29.6640625" customWidth="1"/>
-    <col min="9986" max="9986" width="23.5" customWidth="1"/>
-    <col min="9987" max="9987" width="40.5" customWidth="1"/>
-    <col min="9988" max="9988" width="9.33203125" customWidth="1"/>
-    <col min="9989" max="9989" width="46.1640625" customWidth="1"/>
-    <col min="9990" max="9990" width="55.5" customWidth="1"/>
-    <col min="9991" max="9991" width="29.6640625" customWidth="1"/>
-    <col min="10242" max="10242" width="23.5" customWidth="1"/>
-    <col min="10243" max="10243" width="40.5" customWidth="1"/>
-    <col min="10244" max="10244" width="9.33203125" customWidth="1"/>
-    <col min="10245" max="10245" width="46.1640625" customWidth="1"/>
-    <col min="10246" max="10246" width="55.5" customWidth="1"/>
-    <col min="10247" max="10247" width="29.6640625" customWidth="1"/>
-    <col min="10498" max="10498" width="23.5" customWidth="1"/>
-    <col min="10499" max="10499" width="40.5" customWidth="1"/>
-    <col min="10500" max="10500" width="9.33203125" customWidth="1"/>
-    <col min="10501" max="10501" width="46.1640625" customWidth="1"/>
-    <col min="10502" max="10502" width="55.5" customWidth="1"/>
-    <col min="10503" max="10503" width="29.6640625" customWidth="1"/>
-    <col min="10754" max="10754" width="23.5" customWidth="1"/>
-    <col min="10755" max="10755" width="40.5" customWidth="1"/>
-    <col min="10756" max="10756" width="9.33203125" customWidth="1"/>
-    <col min="10757" max="10757" width="46.1640625" customWidth="1"/>
-    <col min="10758" max="10758" width="55.5" customWidth="1"/>
-    <col min="10759" max="10759" width="29.6640625" customWidth="1"/>
-    <col min="11010" max="11010" width="23.5" customWidth="1"/>
-    <col min="11011" max="11011" width="40.5" customWidth="1"/>
-    <col min="11012" max="11012" width="9.33203125" customWidth="1"/>
-    <col min="11013" max="11013" width="46.1640625" customWidth="1"/>
-    <col min="11014" max="11014" width="55.5" customWidth="1"/>
-    <col min="11015" max="11015" width="29.6640625" customWidth="1"/>
-    <col min="11266" max="11266" width="23.5" customWidth="1"/>
-    <col min="11267" max="11267" width="40.5" customWidth="1"/>
-    <col min="11268" max="11268" width="9.33203125" customWidth="1"/>
-    <col min="11269" max="11269" width="46.1640625" customWidth="1"/>
-    <col min="11270" max="11270" width="55.5" customWidth="1"/>
-    <col min="11271" max="11271" width="29.6640625" customWidth="1"/>
-    <col min="11522" max="11522" width="23.5" customWidth="1"/>
-    <col min="11523" max="11523" width="40.5" customWidth="1"/>
-    <col min="11524" max="11524" width="9.33203125" customWidth="1"/>
-    <col min="11525" max="11525" width="46.1640625" customWidth="1"/>
-    <col min="11526" max="11526" width="55.5" customWidth="1"/>
-    <col min="11527" max="11527" width="29.6640625" customWidth="1"/>
-    <col min="11778" max="11778" width="23.5" customWidth="1"/>
-    <col min="11779" max="11779" width="40.5" customWidth="1"/>
-    <col min="11780" max="11780" width="9.33203125" customWidth="1"/>
-    <col min="11781" max="11781" width="46.1640625" customWidth="1"/>
-    <col min="11782" max="11782" width="55.5" customWidth="1"/>
-    <col min="11783" max="11783" width="29.6640625" customWidth="1"/>
-    <col min="12034" max="12034" width="23.5" customWidth="1"/>
-    <col min="12035" max="12035" width="40.5" customWidth="1"/>
-    <col min="12036" max="12036" width="9.33203125" customWidth="1"/>
-    <col min="12037" max="12037" width="46.1640625" customWidth="1"/>
-    <col min="12038" max="12038" width="55.5" customWidth="1"/>
-    <col min="12039" max="12039" width="29.6640625" customWidth="1"/>
-    <col min="12290" max="12290" width="23.5" customWidth="1"/>
-    <col min="12291" max="12291" width="40.5" customWidth="1"/>
-    <col min="12292" max="12292" width="9.33203125" customWidth="1"/>
-    <col min="12293" max="12293" width="46.1640625" customWidth="1"/>
-    <col min="12294" max="12294" width="55.5" customWidth="1"/>
-    <col min="12295" max="12295" width="29.6640625" customWidth="1"/>
-    <col min="12546" max="12546" width="23.5" customWidth="1"/>
-    <col min="12547" max="12547" width="40.5" customWidth="1"/>
-    <col min="12548" max="12548" width="9.33203125" customWidth="1"/>
-    <col min="12549" max="12549" width="46.1640625" customWidth="1"/>
-    <col min="12550" max="12550" width="55.5" customWidth="1"/>
-    <col min="12551" max="12551" width="29.6640625" customWidth="1"/>
-    <col min="12802" max="12802" width="23.5" customWidth="1"/>
-    <col min="12803" max="12803" width="40.5" customWidth="1"/>
-    <col min="12804" max="12804" width="9.33203125" customWidth="1"/>
-    <col min="12805" max="12805" width="46.1640625" customWidth="1"/>
-    <col min="12806" max="12806" width="55.5" customWidth="1"/>
-    <col min="12807" max="12807" width="29.6640625" customWidth="1"/>
-    <col min="13058" max="13058" width="23.5" customWidth="1"/>
-    <col min="13059" max="13059" width="40.5" customWidth="1"/>
-    <col min="13060" max="13060" width="9.33203125" customWidth="1"/>
-    <col min="13061" max="13061" width="46.1640625" customWidth="1"/>
-    <col min="13062" max="13062" width="55.5" customWidth="1"/>
-    <col min="13063" max="13063" width="29.6640625" customWidth="1"/>
-    <col min="13314" max="13314" width="23.5" customWidth="1"/>
-    <col min="13315" max="13315" width="40.5" customWidth="1"/>
-    <col min="13316" max="13316" width="9.33203125" customWidth="1"/>
-    <col min="13317" max="13317" width="46.1640625" customWidth="1"/>
-    <col min="13318" max="13318" width="55.5" customWidth="1"/>
-    <col min="13319" max="13319" width="29.6640625" customWidth="1"/>
-    <col min="13570" max="13570" width="23.5" customWidth="1"/>
-    <col min="13571" max="13571" width="40.5" customWidth="1"/>
-    <col min="13572" max="13572" width="9.33203125" customWidth="1"/>
-    <col min="13573" max="13573" width="46.1640625" customWidth="1"/>
-    <col min="13574" max="13574" width="55.5" customWidth="1"/>
-    <col min="13575" max="13575" width="29.6640625" customWidth="1"/>
-    <col min="13826" max="13826" width="23.5" customWidth="1"/>
-    <col min="13827" max="13827" width="40.5" customWidth="1"/>
-    <col min="13828" max="13828" width="9.33203125" customWidth="1"/>
-    <col min="13829" max="13829" width="46.1640625" customWidth="1"/>
-    <col min="13830" max="13830" width="55.5" customWidth="1"/>
-    <col min="13831" max="13831" width="29.6640625" customWidth="1"/>
-    <col min="14082" max="14082" width="23.5" customWidth="1"/>
-    <col min="14083" max="14083" width="40.5" customWidth="1"/>
-    <col min="14084" max="14084" width="9.33203125" customWidth="1"/>
-    <col min="14085" max="14085" width="46.1640625" customWidth="1"/>
-    <col min="14086" max="14086" width="55.5" customWidth="1"/>
-    <col min="14087" max="14087" width="29.6640625" customWidth="1"/>
-    <col min="14338" max="14338" width="23.5" customWidth="1"/>
-    <col min="14339" max="14339" width="40.5" customWidth="1"/>
-    <col min="14340" max="14340" width="9.33203125" customWidth="1"/>
-    <col min="14341" max="14341" width="46.1640625" customWidth="1"/>
-    <col min="14342" max="14342" width="55.5" customWidth="1"/>
-    <col min="14343" max="14343" width="29.6640625" customWidth="1"/>
-    <col min="14594" max="14594" width="23.5" customWidth="1"/>
-    <col min="14595" max="14595" width="40.5" customWidth="1"/>
-    <col min="14596" max="14596" width="9.33203125" customWidth="1"/>
-    <col min="14597" max="14597" width="46.1640625" customWidth="1"/>
-    <col min="14598" max="14598" width="55.5" customWidth="1"/>
-    <col min="14599" max="14599" width="29.6640625" customWidth="1"/>
-    <col min="14850" max="14850" width="23.5" customWidth="1"/>
-    <col min="14851" max="14851" width="40.5" customWidth="1"/>
-    <col min="14852" max="14852" width="9.33203125" customWidth="1"/>
-    <col min="14853" max="14853" width="46.1640625" customWidth="1"/>
-    <col min="14854" max="14854" width="55.5" customWidth="1"/>
-    <col min="14855" max="14855" width="29.6640625" customWidth="1"/>
-    <col min="15106" max="15106" width="23.5" customWidth="1"/>
-    <col min="15107" max="15107" width="40.5" customWidth="1"/>
-    <col min="15108" max="15108" width="9.33203125" customWidth="1"/>
-    <col min="15109" max="15109" width="46.1640625" customWidth="1"/>
-    <col min="15110" max="15110" width="55.5" customWidth="1"/>
-    <col min="15111" max="15111" width="29.6640625" customWidth="1"/>
-    <col min="15362" max="15362" width="23.5" customWidth="1"/>
-    <col min="15363" max="15363" width="40.5" customWidth="1"/>
-    <col min="15364" max="15364" width="9.33203125" customWidth="1"/>
-    <col min="15365" max="15365" width="46.1640625" customWidth="1"/>
-    <col min="15366" max="15366" width="55.5" customWidth="1"/>
-    <col min="15367" max="15367" width="29.6640625" customWidth="1"/>
-    <col min="15618" max="15618" width="23.5" customWidth="1"/>
-    <col min="15619" max="15619" width="40.5" customWidth="1"/>
-    <col min="15620" max="15620" width="9.33203125" customWidth="1"/>
-    <col min="15621" max="15621" width="46.1640625" customWidth="1"/>
-    <col min="15622" max="15622" width="55.5" customWidth="1"/>
-    <col min="15623" max="15623" width="29.6640625" customWidth="1"/>
-    <col min="15874" max="15874" width="23.5" customWidth="1"/>
-    <col min="15875" max="15875" width="40.5" customWidth="1"/>
-    <col min="15876" max="15876" width="9.33203125" customWidth="1"/>
-    <col min="15877" max="15877" width="46.1640625" customWidth="1"/>
-    <col min="15878" max="15878" width="55.5" customWidth="1"/>
-    <col min="15879" max="15879" width="29.6640625" customWidth="1"/>
-    <col min="16130" max="16130" width="23.5" customWidth="1"/>
-    <col min="16131" max="16131" width="40.5" customWidth="1"/>
-    <col min="16132" max="16132" width="9.33203125" customWidth="1"/>
-    <col min="16133" max="16133" width="46.1640625" customWidth="1"/>
-    <col min="16134" max="16134" width="55.5" customWidth="1"/>
-    <col min="16135" max="16135" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="76.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="258" max="258" width="23.42578125" customWidth="1"/>
+    <col min="259" max="259" width="40.42578125" customWidth="1"/>
+    <col min="260" max="260" width="9.28515625" customWidth="1"/>
+    <col min="261" max="261" width="46.140625" customWidth="1"/>
+    <col min="262" max="262" width="55.42578125" customWidth="1"/>
+    <col min="263" max="263" width="29.7109375" customWidth="1"/>
+    <col min="514" max="514" width="23.42578125" customWidth="1"/>
+    <col min="515" max="515" width="40.42578125" customWidth="1"/>
+    <col min="516" max="516" width="9.28515625" customWidth="1"/>
+    <col min="517" max="517" width="46.140625" customWidth="1"/>
+    <col min="518" max="518" width="55.42578125" customWidth="1"/>
+    <col min="519" max="519" width="29.7109375" customWidth="1"/>
+    <col min="770" max="770" width="23.42578125" customWidth="1"/>
+    <col min="771" max="771" width="40.42578125" customWidth="1"/>
+    <col min="772" max="772" width="9.28515625" customWidth="1"/>
+    <col min="773" max="773" width="46.140625" customWidth="1"/>
+    <col min="774" max="774" width="55.42578125" customWidth="1"/>
+    <col min="775" max="775" width="29.7109375" customWidth="1"/>
+    <col min="1026" max="1026" width="23.42578125" customWidth="1"/>
+    <col min="1027" max="1027" width="40.42578125" customWidth="1"/>
+    <col min="1028" max="1028" width="9.28515625" customWidth="1"/>
+    <col min="1029" max="1029" width="46.140625" customWidth="1"/>
+    <col min="1030" max="1030" width="55.42578125" customWidth="1"/>
+    <col min="1031" max="1031" width="29.7109375" customWidth="1"/>
+    <col min="1282" max="1282" width="23.42578125" customWidth="1"/>
+    <col min="1283" max="1283" width="40.42578125" customWidth="1"/>
+    <col min="1284" max="1284" width="9.28515625" customWidth="1"/>
+    <col min="1285" max="1285" width="46.140625" customWidth="1"/>
+    <col min="1286" max="1286" width="55.42578125" customWidth="1"/>
+    <col min="1287" max="1287" width="29.7109375" customWidth="1"/>
+    <col min="1538" max="1538" width="23.42578125" customWidth="1"/>
+    <col min="1539" max="1539" width="40.42578125" customWidth="1"/>
+    <col min="1540" max="1540" width="9.28515625" customWidth="1"/>
+    <col min="1541" max="1541" width="46.140625" customWidth="1"/>
+    <col min="1542" max="1542" width="55.42578125" customWidth="1"/>
+    <col min="1543" max="1543" width="29.7109375" customWidth="1"/>
+    <col min="1794" max="1794" width="23.42578125" customWidth="1"/>
+    <col min="1795" max="1795" width="40.42578125" customWidth="1"/>
+    <col min="1796" max="1796" width="9.28515625" customWidth="1"/>
+    <col min="1797" max="1797" width="46.140625" customWidth="1"/>
+    <col min="1798" max="1798" width="55.42578125" customWidth="1"/>
+    <col min="1799" max="1799" width="29.7109375" customWidth="1"/>
+    <col min="2050" max="2050" width="23.42578125" customWidth="1"/>
+    <col min="2051" max="2051" width="40.42578125" customWidth="1"/>
+    <col min="2052" max="2052" width="9.28515625" customWidth="1"/>
+    <col min="2053" max="2053" width="46.140625" customWidth="1"/>
+    <col min="2054" max="2054" width="55.42578125" customWidth="1"/>
+    <col min="2055" max="2055" width="29.7109375" customWidth="1"/>
+    <col min="2306" max="2306" width="23.42578125" customWidth="1"/>
+    <col min="2307" max="2307" width="40.42578125" customWidth="1"/>
+    <col min="2308" max="2308" width="9.28515625" customWidth="1"/>
+    <col min="2309" max="2309" width="46.140625" customWidth="1"/>
+    <col min="2310" max="2310" width="55.42578125" customWidth="1"/>
+    <col min="2311" max="2311" width="29.7109375" customWidth="1"/>
+    <col min="2562" max="2562" width="23.42578125" customWidth="1"/>
+    <col min="2563" max="2563" width="40.42578125" customWidth="1"/>
+    <col min="2564" max="2564" width="9.28515625" customWidth="1"/>
+    <col min="2565" max="2565" width="46.140625" customWidth="1"/>
+    <col min="2566" max="2566" width="55.42578125" customWidth="1"/>
+    <col min="2567" max="2567" width="29.7109375" customWidth="1"/>
+    <col min="2818" max="2818" width="23.42578125" customWidth="1"/>
+    <col min="2819" max="2819" width="40.42578125" customWidth="1"/>
+    <col min="2820" max="2820" width="9.28515625" customWidth="1"/>
+    <col min="2821" max="2821" width="46.140625" customWidth="1"/>
+    <col min="2822" max="2822" width="55.42578125" customWidth="1"/>
+    <col min="2823" max="2823" width="29.7109375" customWidth="1"/>
+    <col min="3074" max="3074" width="23.42578125" customWidth="1"/>
+    <col min="3075" max="3075" width="40.42578125" customWidth="1"/>
+    <col min="3076" max="3076" width="9.28515625" customWidth="1"/>
+    <col min="3077" max="3077" width="46.140625" customWidth="1"/>
+    <col min="3078" max="3078" width="55.42578125" customWidth="1"/>
+    <col min="3079" max="3079" width="29.7109375" customWidth="1"/>
+    <col min="3330" max="3330" width="23.42578125" customWidth="1"/>
+    <col min="3331" max="3331" width="40.42578125" customWidth="1"/>
+    <col min="3332" max="3332" width="9.28515625" customWidth="1"/>
+    <col min="3333" max="3333" width="46.140625" customWidth="1"/>
+    <col min="3334" max="3334" width="55.42578125" customWidth="1"/>
+    <col min="3335" max="3335" width="29.7109375" customWidth="1"/>
+    <col min="3586" max="3586" width="23.42578125" customWidth="1"/>
+    <col min="3587" max="3587" width="40.42578125" customWidth="1"/>
+    <col min="3588" max="3588" width="9.28515625" customWidth="1"/>
+    <col min="3589" max="3589" width="46.140625" customWidth="1"/>
+    <col min="3590" max="3590" width="55.42578125" customWidth="1"/>
+    <col min="3591" max="3591" width="29.7109375" customWidth="1"/>
+    <col min="3842" max="3842" width="23.42578125" customWidth="1"/>
+    <col min="3843" max="3843" width="40.42578125" customWidth="1"/>
+    <col min="3844" max="3844" width="9.28515625" customWidth="1"/>
+    <col min="3845" max="3845" width="46.140625" customWidth="1"/>
+    <col min="3846" max="3846" width="55.42578125" customWidth="1"/>
+    <col min="3847" max="3847" width="29.7109375" customWidth="1"/>
+    <col min="4098" max="4098" width="23.42578125" customWidth="1"/>
+    <col min="4099" max="4099" width="40.42578125" customWidth="1"/>
+    <col min="4100" max="4100" width="9.28515625" customWidth="1"/>
+    <col min="4101" max="4101" width="46.140625" customWidth="1"/>
+    <col min="4102" max="4102" width="55.42578125" customWidth="1"/>
+    <col min="4103" max="4103" width="29.7109375" customWidth="1"/>
+    <col min="4354" max="4354" width="23.42578125" customWidth="1"/>
+    <col min="4355" max="4355" width="40.42578125" customWidth="1"/>
+    <col min="4356" max="4356" width="9.28515625" customWidth="1"/>
+    <col min="4357" max="4357" width="46.140625" customWidth="1"/>
+    <col min="4358" max="4358" width="55.42578125" customWidth="1"/>
+    <col min="4359" max="4359" width="29.7109375" customWidth="1"/>
+    <col min="4610" max="4610" width="23.42578125" customWidth="1"/>
+    <col min="4611" max="4611" width="40.42578125" customWidth="1"/>
+    <col min="4612" max="4612" width="9.28515625" customWidth="1"/>
+    <col min="4613" max="4613" width="46.140625" customWidth="1"/>
+    <col min="4614" max="4614" width="55.42578125" customWidth="1"/>
+    <col min="4615" max="4615" width="29.7109375" customWidth="1"/>
+    <col min="4866" max="4866" width="23.42578125" customWidth="1"/>
+    <col min="4867" max="4867" width="40.42578125" customWidth="1"/>
+    <col min="4868" max="4868" width="9.28515625" customWidth="1"/>
+    <col min="4869" max="4869" width="46.140625" customWidth="1"/>
+    <col min="4870" max="4870" width="55.42578125" customWidth="1"/>
+    <col min="4871" max="4871" width="29.7109375" customWidth="1"/>
+    <col min="5122" max="5122" width="23.42578125" customWidth="1"/>
+    <col min="5123" max="5123" width="40.42578125" customWidth="1"/>
+    <col min="5124" max="5124" width="9.28515625" customWidth="1"/>
+    <col min="5125" max="5125" width="46.140625" customWidth="1"/>
+    <col min="5126" max="5126" width="55.42578125" customWidth="1"/>
+    <col min="5127" max="5127" width="29.7109375" customWidth="1"/>
+    <col min="5378" max="5378" width="23.42578125" customWidth="1"/>
+    <col min="5379" max="5379" width="40.42578125" customWidth="1"/>
+    <col min="5380" max="5380" width="9.28515625" customWidth="1"/>
+    <col min="5381" max="5381" width="46.140625" customWidth="1"/>
+    <col min="5382" max="5382" width="55.42578125" customWidth="1"/>
+    <col min="5383" max="5383" width="29.7109375" customWidth="1"/>
+    <col min="5634" max="5634" width="23.42578125" customWidth="1"/>
+    <col min="5635" max="5635" width="40.42578125" customWidth="1"/>
+    <col min="5636" max="5636" width="9.28515625" customWidth="1"/>
+    <col min="5637" max="5637" width="46.140625" customWidth="1"/>
+    <col min="5638" max="5638" width="55.42578125" customWidth="1"/>
+    <col min="5639" max="5639" width="29.7109375" customWidth="1"/>
+    <col min="5890" max="5890" width="23.42578125" customWidth="1"/>
+    <col min="5891" max="5891" width="40.42578125" customWidth="1"/>
+    <col min="5892" max="5892" width="9.28515625" customWidth="1"/>
+    <col min="5893" max="5893" width="46.140625" customWidth="1"/>
+    <col min="5894" max="5894" width="55.42578125" customWidth="1"/>
+    <col min="5895" max="5895" width="29.7109375" customWidth="1"/>
+    <col min="6146" max="6146" width="23.42578125" customWidth="1"/>
+    <col min="6147" max="6147" width="40.42578125" customWidth="1"/>
+    <col min="6148" max="6148" width="9.28515625" customWidth="1"/>
+    <col min="6149" max="6149" width="46.140625" customWidth="1"/>
+    <col min="6150" max="6150" width="55.42578125" customWidth="1"/>
+    <col min="6151" max="6151" width="29.7109375" customWidth="1"/>
+    <col min="6402" max="6402" width="23.42578125" customWidth="1"/>
+    <col min="6403" max="6403" width="40.42578125" customWidth="1"/>
+    <col min="6404" max="6404" width="9.28515625" customWidth="1"/>
+    <col min="6405" max="6405" width="46.140625" customWidth="1"/>
+    <col min="6406" max="6406" width="55.42578125" customWidth="1"/>
+    <col min="6407" max="6407" width="29.7109375" customWidth="1"/>
+    <col min="6658" max="6658" width="23.42578125" customWidth="1"/>
+    <col min="6659" max="6659" width="40.42578125" customWidth="1"/>
+    <col min="6660" max="6660" width="9.28515625" customWidth="1"/>
+    <col min="6661" max="6661" width="46.140625" customWidth="1"/>
+    <col min="6662" max="6662" width="55.42578125" customWidth="1"/>
+    <col min="6663" max="6663" width="29.7109375" customWidth="1"/>
+    <col min="6914" max="6914" width="23.42578125" customWidth="1"/>
+    <col min="6915" max="6915" width="40.42578125" customWidth="1"/>
+    <col min="6916" max="6916" width="9.28515625" customWidth="1"/>
+    <col min="6917" max="6917" width="46.140625" customWidth="1"/>
+    <col min="6918" max="6918" width="55.42578125" customWidth="1"/>
+    <col min="6919" max="6919" width="29.7109375" customWidth="1"/>
+    <col min="7170" max="7170" width="23.42578125" customWidth="1"/>
+    <col min="7171" max="7171" width="40.42578125" customWidth="1"/>
+    <col min="7172" max="7172" width="9.28515625" customWidth="1"/>
+    <col min="7173" max="7173" width="46.140625" customWidth="1"/>
+    <col min="7174" max="7174" width="55.42578125" customWidth="1"/>
+    <col min="7175" max="7175" width="29.7109375" customWidth="1"/>
+    <col min="7426" max="7426" width="23.42578125" customWidth="1"/>
+    <col min="7427" max="7427" width="40.42578125" customWidth="1"/>
+    <col min="7428" max="7428" width="9.28515625" customWidth="1"/>
+    <col min="7429" max="7429" width="46.140625" customWidth="1"/>
+    <col min="7430" max="7430" width="55.42578125" customWidth="1"/>
+    <col min="7431" max="7431" width="29.7109375" customWidth="1"/>
+    <col min="7682" max="7682" width="23.42578125" customWidth="1"/>
+    <col min="7683" max="7683" width="40.42578125" customWidth="1"/>
+    <col min="7684" max="7684" width="9.28515625" customWidth="1"/>
+    <col min="7685" max="7685" width="46.140625" customWidth="1"/>
+    <col min="7686" max="7686" width="55.42578125" customWidth="1"/>
+    <col min="7687" max="7687" width="29.7109375" customWidth="1"/>
+    <col min="7938" max="7938" width="23.42578125" customWidth="1"/>
+    <col min="7939" max="7939" width="40.42578125" customWidth="1"/>
+    <col min="7940" max="7940" width="9.28515625" customWidth="1"/>
+    <col min="7941" max="7941" width="46.140625" customWidth="1"/>
+    <col min="7942" max="7942" width="55.42578125" customWidth="1"/>
+    <col min="7943" max="7943" width="29.7109375" customWidth="1"/>
+    <col min="8194" max="8194" width="23.42578125" customWidth="1"/>
+    <col min="8195" max="8195" width="40.42578125" customWidth="1"/>
+    <col min="8196" max="8196" width="9.28515625" customWidth="1"/>
+    <col min="8197" max="8197" width="46.140625" customWidth="1"/>
+    <col min="8198" max="8198" width="55.42578125" customWidth="1"/>
+    <col min="8199" max="8199" width="29.7109375" customWidth="1"/>
+    <col min="8450" max="8450" width="23.42578125" customWidth="1"/>
+    <col min="8451" max="8451" width="40.42578125" customWidth="1"/>
+    <col min="8452" max="8452" width="9.28515625" customWidth="1"/>
+    <col min="8453" max="8453" width="46.140625" customWidth="1"/>
+    <col min="8454" max="8454" width="55.42578125" customWidth="1"/>
+    <col min="8455" max="8455" width="29.7109375" customWidth="1"/>
+    <col min="8706" max="8706" width="23.42578125" customWidth="1"/>
+    <col min="8707" max="8707" width="40.42578125" customWidth="1"/>
+    <col min="8708" max="8708" width="9.28515625" customWidth="1"/>
+    <col min="8709" max="8709" width="46.140625" customWidth="1"/>
+    <col min="8710" max="8710" width="55.42578125" customWidth="1"/>
+    <col min="8711" max="8711" width="29.7109375" customWidth="1"/>
+    <col min="8962" max="8962" width="23.42578125" customWidth="1"/>
+    <col min="8963" max="8963" width="40.42578125" customWidth="1"/>
+    <col min="8964" max="8964" width="9.28515625" customWidth="1"/>
+    <col min="8965" max="8965" width="46.140625" customWidth="1"/>
+    <col min="8966" max="8966" width="55.42578125" customWidth="1"/>
+    <col min="8967" max="8967" width="29.7109375" customWidth="1"/>
+    <col min="9218" max="9218" width="23.42578125" customWidth="1"/>
+    <col min="9219" max="9219" width="40.42578125" customWidth="1"/>
+    <col min="9220" max="9220" width="9.28515625" customWidth="1"/>
+    <col min="9221" max="9221" width="46.140625" customWidth="1"/>
+    <col min="9222" max="9222" width="55.42578125" customWidth="1"/>
+    <col min="9223" max="9223" width="29.7109375" customWidth="1"/>
+    <col min="9474" max="9474" width="23.42578125" customWidth="1"/>
+    <col min="9475" max="9475" width="40.42578125" customWidth="1"/>
+    <col min="9476" max="9476" width="9.28515625" customWidth="1"/>
+    <col min="9477" max="9477" width="46.140625" customWidth="1"/>
+    <col min="9478" max="9478" width="55.42578125" customWidth="1"/>
+    <col min="9479" max="9479" width="29.7109375" customWidth="1"/>
+    <col min="9730" max="9730" width="23.42578125" customWidth="1"/>
+    <col min="9731" max="9731" width="40.42578125" customWidth="1"/>
+    <col min="9732" max="9732" width="9.28515625" customWidth="1"/>
+    <col min="9733" max="9733" width="46.140625" customWidth="1"/>
+    <col min="9734" max="9734" width="55.42578125" customWidth="1"/>
+    <col min="9735" max="9735" width="29.7109375" customWidth="1"/>
+    <col min="9986" max="9986" width="23.42578125" customWidth="1"/>
+    <col min="9987" max="9987" width="40.42578125" customWidth="1"/>
+    <col min="9988" max="9988" width="9.28515625" customWidth="1"/>
+    <col min="9989" max="9989" width="46.140625" customWidth="1"/>
+    <col min="9990" max="9990" width="55.42578125" customWidth="1"/>
+    <col min="9991" max="9991" width="29.7109375" customWidth="1"/>
+    <col min="10242" max="10242" width="23.42578125" customWidth="1"/>
+    <col min="10243" max="10243" width="40.42578125" customWidth="1"/>
+    <col min="10244" max="10244" width="9.28515625" customWidth="1"/>
+    <col min="10245" max="10245" width="46.140625" customWidth="1"/>
+    <col min="10246" max="10246" width="55.42578125" customWidth="1"/>
+    <col min="10247" max="10247" width="29.7109375" customWidth="1"/>
+    <col min="10498" max="10498" width="23.42578125" customWidth="1"/>
+    <col min="10499" max="10499" width="40.42578125" customWidth="1"/>
+    <col min="10500" max="10500" width="9.28515625" customWidth="1"/>
+    <col min="10501" max="10501" width="46.140625" customWidth="1"/>
+    <col min="10502" max="10502" width="55.42578125" customWidth="1"/>
+    <col min="10503" max="10503" width="29.7109375" customWidth="1"/>
+    <col min="10754" max="10754" width="23.42578125" customWidth="1"/>
+    <col min="10755" max="10755" width="40.42578125" customWidth="1"/>
+    <col min="10756" max="10756" width="9.28515625" customWidth="1"/>
+    <col min="10757" max="10757" width="46.140625" customWidth="1"/>
+    <col min="10758" max="10758" width="55.42578125" customWidth="1"/>
+    <col min="10759" max="10759" width="29.7109375" customWidth="1"/>
+    <col min="11010" max="11010" width="23.42578125" customWidth="1"/>
+    <col min="11011" max="11011" width="40.42578125" customWidth="1"/>
+    <col min="11012" max="11012" width="9.28515625" customWidth="1"/>
+    <col min="11013" max="11013" width="46.140625" customWidth="1"/>
+    <col min="11014" max="11014" width="55.42578125" customWidth="1"/>
+    <col min="11015" max="11015" width="29.7109375" customWidth="1"/>
+    <col min="11266" max="11266" width="23.42578125" customWidth="1"/>
+    <col min="11267" max="11267" width="40.42578125" customWidth="1"/>
+    <col min="11268" max="11268" width="9.28515625" customWidth="1"/>
+    <col min="11269" max="11269" width="46.140625" customWidth="1"/>
+    <col min="11270" max="11270" width="55.42578125" customWidth="1"/>
+    <col min="11271" max="11271" width="29.7109375" customWidth="1"/>
+    <col min="11522" max="11522" width="23.42578125" customWidth="1"/>
+    <col min="11523" max="11523" width="40.42578125" customWidth="1"/>
+    <col min="11524" max="11524" width="9.28515625" customWidth="1"/>
+    <col min="11525" max="11525" width="46.140625" customWidth="1"/>
+    <col min="11526" max="11526" width="55.42578125" customWidth="1"/>
+    <col min="11527" max="11527" width="29.7109375" customWidth="1"/>
+    <col min="11778" max="11778" width="23.42578125" customWidth="1"/>
+    <col min="11779" max="11779" width="40.42578125" customWidth="1"/>
+    <col min="11780" max="11780" width="9.28515625" customWidth="1"/>
+    <col min="11781" max="11781" width="46.140625" customWidth="1"/>
+    <col min="11782" max="11782" width="55.42578125" customWidth="1"/>
+    <col min="11783" max="11783" width="29.7109375" customWidth="1"/>
+    <col min="12034" max="12034" width="23.42578125" customWidth="1"/>
+    <col min="12035" max="12035" width="40.42578125" customWidth="1"/>
+    <col min="12036" max="12036" width="9.28515625" customWidth="1"/>
+    <col min="12037" max="12037" width="46.140625" customWidth="1"/>
+    <col min="12038" max="12038" width="55.42578125" customWidth="1"/>
+    <col min="12039" max="12039" width="29.7109375" customWidth="1"/>
+    <col min="12290" max="12290" width="23.42578125" customWidth="1"/>
+    <col min="12291" max="12291" width="40.42578125" customWidth="1"/>
+    <col min="12292" max="12292" width="9.28515625" customWidth="1"/>
+    <col min="12293" max="12293" width="46.140625" customWidth="1"/>
+    <col min="12294" max="12294" width="55.42578125" customWidth="1"/>
+    <col min="12295" max="12295" width="29.7109375" customWidth="1"/>
+    <col min="12546" max="12546" width="23.42578125" customWidth="1"/>
+    <col min="12547" max="12547" width="40.42578125" customWidth="1"/>
+    <col min="12548" max="12548" width="9.28515625" customWidth="1"/>
+    <col min="12549" max="12549" width="46.140625" customWidth="1"/>
+    <col min="12550" max="12550" width="55.42578125" customWidth="1"/>
+    <col min="12551" max="12551" width="29.7109375" customWidth="1"/>
+    <col min="12802" max="12802" width="23.42578125" customWidth="1"/>
+    <col min="12803" max="12803" width="40.42578125" customWidth="1"/>
+    <col min="12804" max="12804" width="9.28515625" customWidth="1"/>
+    <col min="12805" max="12805" width="46.140625" customWidth="1"/>
+    <col min="12806" max="12806" width="55.42578125" customWidth="1"/>
+    <col min="12807" max="12807" width="29.7109375" customWidth="1"/>
+    <col min="13058" max="13058" width="23.42578125" customWidth="1"/>
+    <col min="13059" max="13059" width="40.42578125" customWidth="1"/>
+    <col min="13060" max="13060" width="9.28515625" customWidth="1"/>
+    <col min="13061" max="13061" width="46.140625" customWidth="1"/>
+    <col min="13062" max="13062" width="55.42578125" customWidth="1"/>
+    <col min="13063" max="13063" width="29.7109375" customWidth="1"/>
+    <col min="13314" max="13314" width="23.42578125" customWidth="1"/>
+    <col min="13315" max="13315" width="40.42578125" customWidth="1"/>
+    <col min="13316" max="13316" width="9.28515625" customWidth="1"/>
+    <col min="13317" max="13317" width="46.140625" customWidth="1"/>
+    <col min="13318" max="13318" width="55.42578125" customWidth="1"/>
+    <col min="13319" max="13319" width="29.7109375" customWidth="1"/>
+    <col min="13570" max="13570" width="23.42578125" customWidth="1"/>
+    <col min="13571" max="13571" width="40.42578125" customWidth="1"/>
+    <col min="13572" max="13572" width="9.28515625" customWidth="1"/>
+    <col min="13573" max="13573" width="46.140625" customWidth="1"/>
+    <col min="13574" max="13574" width="55.42578125" customWidth="1"/>
+    <col min="13575" max="13575" width="29.7109375" customWidth="1"/>
+    <col min="13826" max="13826" width="23.42578125" customWidth="1"/>
+    <col min="13827" max="13827" width="40.42578125" customWidth="1"/>
+    <col min="13828" max="13828" width="9.28515625" customWidth="1"/>
+    <col min="13829" max="13829" width="46.140625" customWidth="1"/>
+    <col min="13830" max="13830" width="55.42578125" customWidth="1"/>
+    <col min="13831" max="13831" width="29.7109375" customWidth="1"/>
+    <col min="14082" max="14082" width="23.42578125" customWidth="1"/>
+    <col min="14083" max="14083" width="40.42578125" customWidth="1"/>
+    <col min="14084" max="14084" width="9.28515625" customWidth="1"/>
+    <col min="14085" max="14085" width="46.140625" customWidth="1"/>
+    <col min="14086" max="14086" width="55.42578125" customWidth="1"/>
+    <col min="14087" max="14087" width="29.7109375" customWidth="1"/>
+    <col min="14338" max="14338" width="23.42578125" customWidth="1"/>
+    <col min="14339" max="14339" width="40.42578125" customWidth="1"/>
+    <col min="14340" max="14340" width="9.28515625" customWidth="1"/>
+    <col min="14341" max="14341" width="46.140625" customWidth="1"/>
+    <col min="14342" max="14342" width="55.42578125" customWidth="1"/>
+    <col min="14343" max="14343" width="29.7109375" customWidth="1"/>
+    <col min="14594" max="14594" width="23.42578125" customWidth="1"/>
+    <col min="14595" max="14595" width="40.42578125" customWidth="1"/>
+    <col min="14596" max="14596" width="9.28515625" customWidth="1"/>
+    <col min="14597" max="14597" width="46.140625" customWidth="1"/>
+    <col min="14598" max="14598" width="55.42578125" customWidth="1"/>
+    <col min="14599" max="14599" width="29.7109375" customWidth="1"/>
+    <col min="14850" max="14850" width="23.42578125" customWidth="1"/>
+    <col min="14851" max="14851" width="40.42578125" customWidth="1"/>
+    <col min="14852" max="14852" width="9.28515625" customWidth="1"/>
+    <col min="14853" max="14853" width="46.140625" customWidth="1"/>
+    <col min="14854" max="14854" width="55.42578125" customWidth="1"/>
+    <col min="14855" max="14855" width="29.7109375" customWidth="1"/>
+    <col min="15106" max="15106" width="23.42578125" customWidth="1"/>
+    <col min="15107" max="15107" width="40.42578125" customWidth="1"/>
+    <col min="15108" max="15108" width="9.28515625" customWidth="1"/>
+    <col min="15109" max="15109" width="46.140625" customWidth="1"/>
+    <col min="15110" max="15110" width="55.42578125" customWidth="1"/>
+    <col min="15111" max="15111" width="29.7109375" customWidth="1"/>
+    <col min="15362" max="15362" width="23.42578125" customWidth="1"/>
+    <col min="15363" max="15363" width="40.42578125" customWidth="1"/>
+    <col min="15364" max="15364" width="9.28515625" customWidth="1"/>
+    <col min="15365" max="15365" width="46.140625" customWidth="1"/>
+    <col min="15366" max="15366" width="55.42578125" customWidth="1"/>
+    <col min="15367" max="15367" width="29.7109375" customWidth="1"/>
+    <col min="15618" max="15618" width="23.42578125" customWidth="1"/>
+    <col min="15619" max="15619" width="40.42578125" customWidth="1"/>
+    <col min="15620" max="15620" width="9.28515625" customWidth="1"/>
+    <col min="15621" max="15621" width="46.140625" customWidth="1"/>
+    <col min="15622" max="15622" width="55.42578125" customWidth="1"/>
+    <col min="15623" max="15623" width="29.7109375" customWidth="1"/>
+    <col min="15874" max="15874" width="23.42578125" customWidth="1"/>
+    <col min="15875" max="15875" width="40.42578125" customWidth="1"/>
+    <col min="15876" max="15876" width="9.28515625" customWidth="1"/>
+    <col min="15877" max="15877" width="46.140625" customWidth="1"/>
+    <col min="15878" max="15878" width="55.42578125" customWidth="1"/>
+    <col min="15879" max="15879" width="29.7109375" customWidth="1"/>
+    <col min="16130" max="16130" width="23.42578125" customWidth="1"/>
+    <col min="16131" max="16131" width="40.42578125" customWidth="1"/>
+    <col min="16132" max="16132" width="9.28515625" customWidth="1"/>
+    <col min="16133" max="16133" width="46.140625" customWidth="1"/>
+    <col min="16134" max="16134" width="55.42578125" customWidth="1"/>
+    <col min="16135" max="16135" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" s="30" customFormat="1" ht="14.25">
+    <row r="4" spans="2:5" s="30" customFormat="1" ht="13.2">
       <c r="B4" s="36" t="s">
         <v>139</v>
       </c>
@@ -8430,7 +8425,7 @@
     <row r="9" spans="2:5">
       <c r="B9" s="30"/>
     </row>
-    <row r="11" spans="2:5" ht="14.25" thickBot="1">
+    <row r="11" spans="2:5" ht="11.4" thickBot="1">
       <c r="B11" t="s">
         <v>218</v>
       </c>
@@ -8449,8 +8444,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="50.45" customHeight="1">
-      <c r="B13" s="245" t="s">
+    <row r="13" spans="2:5" ht="50.4" customHeight="1">
+      <c r="B13" s="264" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="74" t="s">
@@ -8464,26 +8459,26 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="246"/>
+      <c r="B14" s="265"/>
       <c r="C14" s="129" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="243" t="s">
+      <c r="D14" s="262" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="243" t="s">
+      <c r="E14" s="262" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="246"/>
+    <row r="15" spans="2:5" s="30" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
+      <c r="B15" s="265"/>
       <c r="C15" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="243"/>
-      <c r="E15" s="244"/>
+      <c r="D15" s="262"/>
+      <c r="E15" s="263"/>
     </row>
-    <row r="16" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="16" spans="2:5" s="30" customFormat="1" ht="16.95" customHeight="1">
       <c r="B16" s="109" t="s">
         <v>154</v>
       </c>
@@ -8493,30 +8488,30 @@
       <c r="D16" s="109"/>
       <c r="E16" s="105"/>
     </row>
-    <row r="17" spans="2:6" s="30" customFormat="1" ht="54.95" customHeight="1">
+    <row r="17" spans="2:6" s="30" customFormat="1" ht="54.9" customHeight="1">
       <c r="B17" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="252" t="s">
+      <c r="C17" s="269" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="252"/>
+      <c r="D17" s="269"/>
       <c r="E17" s="108"/>
     </row>
     <row r="18" spans="2:6" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="B18" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="251" t="s">
+      <c r="C18" s="268" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="251"/>
+      <c r="D18" s="268"/>
       <c r="E18" s="108"/>
     </row>
-    <row r="19" spans="2:6" ht="14.25" thickTop="1">
+    <row r="19" spans="2:6" ht="11.4" thickTop="1">
       <c r="B19" s="49"/>
     </row>
-    <row r="21" spans="2:6" ht="14.25" thickBot="1">
+    <row r="21" spans="2:6" ht="11.4" thickBot="1">
       <c r="B21" s="7" t="s">
         <v>106</v>
       </c>
@@ -8592,7 +8587,7 @@
       </c>
       <c r="F26" s="25"/>
     </row>
-    <row r="27" spans="2:6" ht="27">
+    <row r="27" spans="2:6" ht="21.6">
       <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
         <v>228</v>
@@ -8693,7 +8688,7 @@
       </c>
       <c r="F35" s="26"/>
     </row>
-    <row r="36" spans="2:6" ht="27">
+    <row r="36" spans="2:6" ht="21.6">
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="26" t="s">
@@ -8715,7 +8710,7 @@
       </c>
       <c r="F37" s="26"/>
     </row>
-    <row r="38" spans="2:6" ht="14.25" thickBot="1">
+    <row r="38" spans="2:6" ht="11.4" thickBot="1">
       <c r="B38" s="39"/>
       <c r="C38" s="42"/>
       <c r="D38" s="39" t="s">
@@ -8726,17 +8721,17 @@
       </c>
       <c r="F38" s="39"/>
     </row>
-    <row r="39" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B39" s="247" t="s">
+    <row r="39" spans="2:6" ht="22.2" thickTop="1">
+      <c r="B39" s="266" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="249" t="s">
+      <c r="D39" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="249" t="s">
+      <c r="E39" s="267" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -8744,50 +8739,50 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="248"/>
+      <c r="B40" s="258"/>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="250"/>
-      <c r="E40" s="250"/>
+      <c r="D40" s="253"/>
+      <c r="E40" s="253"/>
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="248"/>
+      <c r="B41" s="258"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="250"/>
-      <c r="E41" s="250"/>
+      <c r="D41" s="253"/>
+      <c r="E41" s="253"/>
       <c r="F41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="248"/>
+      <c r="B42" s="258"/>
       <c r="C42" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D42" s="250"/>
-      <c r="E42" s="250"/>
+      <c r="D42" s="253"/>
+      <c r="E42" s="253"/>
       <c r="F42" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="27">
-      <c r="B43" s="248"/>
+    <row r="43" spans="2:6" ht="21.6">
+      <c r="B43" s="258"/>
       <c r="C43" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="250"/>
-      <c r="E43" s="250"/>
+      <c r="D43" s="253"/>
+      <c r="E43" s="253"/>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="40.5">
+    <row r="44" spans="2:6" ht="32.4">
       <c r="B44" s="25"/>
       <c r="C44" s="136" t="s">
         <v>229</v>
@@ -8812,24 +8807,24 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="256"/>
-      <c r="C46" s="256"/>
-      <c r="D46" s="250" t="s">
+      <c r="B46" s="252"/>
+      <c r="C46" s="252"/>
+      <c r="D46" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="250" t="s">
+      <c r="E46" s="253" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="250"/>
+      <c r="F46" s="253"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="256"/>
-      <c r="C47" s="256"/>
-      <c r="D47" s="250"/>
-      <c r="E47" s="250"/>
-      <c r="F47" s="250"/>
+      <c r="B47" s="252"/>
+      <c r="C47" s="252"/>
+      <c r="D47" s="253"/>
+      <c r="E47" s="253"/>
+      <c r="F47" s="253"/>
     </row>
-    <row r="48" spans="2:6" ht="14.25" thickBot="1">
+    <row r="48" spans="2:6" ht="11.4" thickBot="1">
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40" t="s">
@@ -8840,17 +8835,17 @@
       </c>
       <c r="F48" s="40"/>
     </row>
-    <row r="49" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B49" s="255" t="s">
+    <row r="49" spans="2:6" ht="11.4" thickTop="1">
+      <c r="B49" s="257" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="257" t="s">
+      <c r="D49" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="257" t="s">
+      <c r="E49" s="259" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -8858,33 +8853,33 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="248"/>
+      <c r="B50" s="258"/>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="256"/>
-      <c r="E50" s="256"/>
+      <c r="D50" s="252"/>
+      <c r="E50" s="252"/>
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="248"/>
+      <c r="B51" s="258"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="256"/>
-      <c r="E51" s="256"/>
+      <c r="D51" s="252"/>
+      <c r="E51" s="252"/>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="248"/>
+      <c r="B52" s="258"/>
       <c r="C52" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="256"/>
-      <c r="E52" s="256"/>
+      <c r="D52" s="252"/>
+      <c r="E52" s="252"/>
       <c r="F52" s="25"/>
     </row>
-    <row r="53" spans="2:6" ht="27">
+    <row r="53" spans="2:6" ht="21.6">
       <c r="B53" s="25"/>
       <c r="C53" s="8" t="s">
         <v>228</v>
@@ -8897,7 +8892,7 @@
       </c>
       <c r="F53" s="26"/>
     </row>
-    <row r="54" spans="2:6" ht="40.5">
+    <row r="54" spans="2:6" ht="32.4">
       <c r="B54" s="25"/>
       <c r="C54" s="132" t="s">
         <v>229</v>
@@ -8921,7 +8916,7 @@
       </c>
       <c r="F55" s="25"/>
     </row>
-    <row r="56" spans="2:6" ht="14.25" thickBot="1">
+    <row r="56" spans="2:6" ht="11.4" thickBot="1">
       <c r="B56" s="39"/>
       <c r="C56" s="42"/>
       <c r="D56" s="39" t="s">
@@ -8932,49 +8927,49 @@
       </c>
       <c r="F56" s="39"/>
     </row>
-    <row r="57" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B57" s="258" t="s">
+    <row r="57" spans="2:6" ht="11.4" thickTop="1">
+      <c r="B57" s="260" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="260" t="s">
+      <c r="D57" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="260" t="s">
+      <c r="E57" s="261" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="253"/>
+      <c r="F57" s="256"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="259"/>
+      <c r="B58" s="251"/>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="250"/>
-      <c r="E58" s="250"/>
-      <c r="F58" s="254"/>
+      <c r="D58" s="253"/>
+      <c r="E58" s="253"/>
+      <c r="F58" s="241"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="259"/>
+      <c r="B59" s="251"/>
       <c r="C59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="250"/>
-      <c r="E59" s="250"/>
-      <c r="F59" s="254"/>
+      <c r="D59" s="253"/>
+      <c r="E59" s="253"/>
+      <c r="F59" s="241"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="259"/>
+      <c r="B60" s="251"/>
       <c r="C60" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="250"/>
-      <c r="E60" s="250"/>
-      <c r="F60" s="254"/>
+      <c r="D60" s="253"/>
+      <c r="E60" s="253"/>
+      <c r="F60" s="241"/>
     </row>
-    <row r="61" spans="2:6" ht="27">
+    <row r="61" spans="2:6" ht="21.6">
       <c r="B61" s="24"/>
       <c r="C61" s="8" t="s">
         <v>228</v>
@@ -8988,22 +8983,22 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="259"/>
-      <c r="C62" s="256"/>
-      <c r="D62" s="250" t="s">
+      <c r="B62" s="251"/>
+      <c r="C62" s="252"/>
+      <c r="D62" s="253" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="250" t="s">
+      <c r="E62" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="254"/>
+      <c r="F62" s="241"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="259"/>
-      <c r="C63" s="256"/>
-      <c r="D63" s="250"/>
-      <c r="E63" s="250"/>
-      <c r="F63" s="254"/>
+      <c r="B63" s="251"/>
+      <c r="C63" s="252"/>
+      <c r="D63" s="253"/>
+      <c r="E63" s="253"/>
+      <c r="F63" s="241"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="24"/>
@@ -9060,7 +9055,7 @@
       </c>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="2:6" ht="27">
+    <row r="69" spans="2:6" ht="21.6">
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
       <c r="D69" s="26" t="s">
@@ -9071,7 +9066,7 @@
       </c>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" ht="21.6">
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
       <c r="D70" s="26" t="s">
@@ -9126,7 +9121,7 @@
       </c>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="2:6" ht="14.25" thickBot="1">
+    <row r="75" spans="2:6" ht="11.4" thickBot="1">
       <c r="B75" s="38"/>
       <c r="C75" s="39"/>
       <c r="D75" s="40" t="s">
@@ -9137,51 +9132,51 @@
       </c>
       <c r="F75" s="41"/>
     </row>
-    <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
+    <row r="76" spans="2:6" ht="11.4" thickTop="1"/>
     <row r="78" spans="2:6">
-      <c r="B78" s="267" t="s">
+      <c r="B78" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="268"/>
-      <c r="D78" s="268"/>
-      <c r="E78" s="268"/>
+      <c r="C78" s="249"/>
+      <c r="D78" s="249"/>
+      <c r="E78" s="249"/>
     </row>
     <row r="79" spans="2:6" s="30" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B79" s="265" t="s">
+      <c r="B79" s="246" t="s">
         <v>282</v>
       </c>
-      <c r="C79" s="265"/>
-      <c r="D79" s="265"/>
+      <c r="C79" s="246"/>
+      <c r="D79" s="246"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="264" t="s">
+      <c r="C80" s="245" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="264"/>
+      <c r="D80" s="245"/>
     </row>
     <row r="81" spans="2:4" ht="57" customHeight="1">
       <c r="B81" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="266" t="s">
+      <c r="C81" s="247" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="266"/>
+      <c r="D81" s="247"/>
     </row>
     <row r="82" spans="2:4" ht="72" customHeight="1" thickBot="1">
       <c r="B82" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="263" t="s">
+      <c r="C82" s="244" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="263"/>
+      <c r="D82" s="244"/>
     </row>
-    <row r="83" spans="2:4" ht="14.25" thickTop="1"/>
+    <row r="83" spans="2:4" ht="11.4" thickTop="1"/>
     <row r="84" spans="2:4">
       <c r="B84" s="35"/>
       <c r="C84" s="31"/>
@@ -9194,27 +9189,27 @@
       <c r="C85" s="73"/>
     </row>
     <row r="86" spans="2:4" ht="42" customHeight="1" thickBot="1">
-      <c r="B86" s="271" t="s">
+      <c r="B86" s="255" t="s">
         <v>186</v>
       </c>
-      <c r="C86" s="271"/>
-      <c r="D86" s="271"/>
+      <c r="C86" s="255"/>
+      <c r="D86" s="255"/>
     </row>
-    <row r="87" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B87" s="261" t="s">
+    <row r="87" spans="2:4" ht="11.4" thickBot="1">
+      <c r="B87" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="269" t="s">
+      <c r="C87" s="250" t="s">
         <v>224</v>
       </c>
-      <c r="D87" s="270" t="s">
+      <c r="D87" s="254" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="262"/>
-      <c r="C88" s="269"/>
-      <c r="D88" s="270"/>
+      <c r="B88" s="243"/>
+      <c r="C88" s="250"/>
+      <c r="D88" s="254"/>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="19" t="s">
@@ -9436,7 +9431,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="109" spans="2:4" ht="14.25" thickBot="1">
+    <row r="109" spans="2:4" ht="11.4" thickBot="1">
       <c r="B109" s="21" t="s">
         <v>114</v>
       </c>
@@ -9447,12 +9442,32 @@
         <v>292</v>
       </c>
     </row>
-    <row r="110" spans="2:4" ht="14.25" thickTop="1"/>
+    <row r="110" spans="2:4" ht="11.4" thickTop="1"/>
   </sheetData>
   <sortState ref="B85:C105">
     <sortCondition ref="B85:B105"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C82:D82"/>
@@ -9467,26 +9482,6 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Definitioner!B21" display="Riskfaktorer"/>
@@ -9506,10 +9501,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="30"/>
+    <col min="1" max="1" width="10.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1">
@@ -9571,11 +9566,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="43.5" customWidth="1"/>
-    <col min="2" max="7" width="8.5" style="2" customWidth="1"/>
-    <col min="8" max="11" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="2" max="7" width="8.42578125" style="2" customWidth="1"/>
+    <col min="8" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1">
@@ -9583,16 +9578,16 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="29.25" customHeight="1">
-      <c r="A2" s="272" t="s">
+    <row r="2" spans="1:22" ht="33" customHeight="1">
+      <c r="A2" s="270" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="76"/>
@@ -9612,7 +9607,7 @@
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
     </row>
-    <row r="5" spans="1:22" ht="14.25" thickBot="1">
+    <row r="5" spans="1:22" ht="11.4" thickBot="1">
       <c r="A5" s="61"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -9623,29 +9618,29 @@
     </row>
     <row r="6" spans="1:22" ht="21.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="273" t="s">
+      <c r="B6" s="271" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="274"/>
-      <c r="D6" s="274"/>
-      <c r="E6" s="274"/>
-      <c r="F6" s="274"/>
-      <c r="G6" s="275"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="273"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="58"/>
-      <c r="B7" s="281" t="s">
+      <c r="B7" s="279" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="281"/>
-      <c r="D7" s="279" t="s">
+      <c r="C7" s="279"/>
+      <c r="D7" s="277" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="278" t="s">
+      <c r="E7" s="278"/>
+      <c r="F7" s="276" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="278"/>
+      <c r="G7" s="276"/>
       <c r="V7" t="s">
         <v>110</v>
       </c>
@@ -10311,7 +10306,7 @@
         <v>7.5592994999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.25" thickBot="1">
+    <row r="37" spans="1:7" ht="11.4" thickBot="1">
       <c r="A37" s="21" t="s">
         <v>146</v>
       </c>
@@ -10335,39 +10330,39 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" thickTop="1">
-      <c r="A38" s="276" t="s">
+      <c r="A38" s="274" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="276"/>
-      <c r="C38" s="276"/>
-      <c r="D38" s="276"/>
-      <c r="E38" s="276"/>
-      <c r="F38" s="276"/>
-      <c r="G38" s="276"/>
+      <c r="B38" s="274"/>
+      <c r="C38" s="274"/>
+      <c r="D38" s="274"/>
+      <c r="E38" s="274"/>
+      <c r="F38" s="274"/>
+      <c r="G38" s="274"/>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="282" t="s">
+    <row r="39" spans="1:7" ht="11.4">
+      <c r="A39" s="280" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="282"/>
-      <c r="C39" s="282"/>
-      <c r="D39" s="282"/>
-      <c r="E39" s="282"/>
-      <c r="F39" s="282"/>
-      <c r="G39" s="282"/>
+      <c r="B39" s="280"/>
+      <c r="C39" s="280"/>
+      <c r="D39" s="280"/>
+      <c r="E39" s="280"/>
+      <c r="F39" s="280"/>
+      <c r="G39" s="280"/>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="277" t="s">
+    <row r="40" spans="1:7" ht="11.4">
+      <c r="A40" s="275" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="277"/>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
-      <c r="E40" s="277"/>
-      <c r="F40" s="277"/>
-      <c r="G40" s="277"/>
+      <c r="B40" s="275"/>
+      <c r="C40" s="275"/>
+      <c r="D40" s="275"/>
+      <c r="E40" s="275"/>
+      <c r="F40" s="275"/>
+      <c r="G40" s="275"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" ht="11.4">
       <c r="A41" s="47"/>
     </row>
   </sheetData>
@@ -10397,10 +10392,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
-    <col min="4" max="7" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="4" max="7" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1">
@@ -10417,47 +10412,47 @@
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="281" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25" thickBot="1">
+    <row r="4" spans="1:9" ht="11.4" thickBot="1">
       <c r="A4" s="104"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="283" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="286"/>
-      <c r="D5" s="285" t="s">
+      <c r="C5" s="284"/>
+      <c r="D5" s="283" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="286"/>
-      <c r="F5" s="285" t="s">
+      <c r="E5" s="284"/>
+      <c r="F5" s="283" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="286"/>
+      <c r="G5" s="284"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="287"/>
-      <c r="B6" s="280"/>
-      <c r="C6" s="279"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="279"/>
+      <c r="A6" s="285"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="277"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="277"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="277"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="288"/>
+      <c r="A7" s="286"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -10983,7 +10978,7 @@
         <v>13.256484149855901</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1">
+    <row r="30" spans="1:7" ht="11.4" thickBot="1">
       <c r="A30" s="145" t="s">
         <v>142</v>
       </c>
@@ -11006,21 +11001,21 @@
         <v>14.720812182741099</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="11.4">
       <c r="A31" s="144" t="s">
         <v>192</v>
       </c>
       <c r="B31" s="144"/>
       <c r="C31" s="144"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="11.4">
       <c r="A32" s="48" t="s">
         <v>180</v>
       </c>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="11.4">
       <c r="A33" s="48" t="s">
         <v>208</v>
       </c>
@@ -11028,13 +11023,13 @@
       <c r="C33" s="80"/>
     </row>
     <row r="34" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A34" s="284"/>
-      <c r="B34" s="284"/>
-      <c r="C34" s="284"/>
-      <c r="D34" s="284"/>
-      <c r="E34" s="284"/>
-      <c r="F34" s="284"/>
-      <c r="G34" s="284"/>
+      <c r="A34" s="282"/>
+      <c r="B34" s="282"/>
+      <c r="C34" s="282"/>
+      <c r="D34" s="282"/>
+      <c r="E34" s="282"/>
+      <c r="F34" s="282"/>
+      <c r="G34" s="282"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11054,39 +11049,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="30" customWidth="1"/>
-    <col min="2" max="9" width="7.5" style="30" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="30" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="30" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="30" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="30" customWidth="1"/>
-    <col min="15" max="15" width="7.5" style="30" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="30" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="30" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" style="30" customWidth="1"/>
+    <col min="2" max="9" width="7.42578125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="30" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="30" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="30" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="30" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="30" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="30" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="30" customWidth="1"/>
     <col min="18" max="18" width="11" style="30" customWidth="1"/>
-    <col min="19" max="19" width="7.5" style="30" customWidth="1"/>
-    <col min="20" max="20" width="9.5" style="30" customWidth="1"/>
-    <col min="21" max="21" width="7.5" style="30" customWidth="1"/>
-    <col min="22" max="22" width="8.1640625" style="30" customWidth="1"/>
-    <col min="23" max="23" width="7.5" style="30" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="30" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="30" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" style="30" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" style="30" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="30" customWidth="1"/>
     <col min="24" max="24" width="8" style="30" customWidth="1"/>
-    <col min="25" max="25" width="7.5" style="30" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" style="30" customWidth="1"/>
-    <col min="27" max="27" width="7.5" style="30" customWidth="1"/>
-    <col min="28" max="28" width="8.1640625" style="30" customWidth="1"/>
-    <col min="29" max="29" width="7.5" style="30" customWidth="1"/>
-    <col min="30" max="30" width="8.6640625" style="30" customWidth="1"/>
-    <col min="31" max="33" width="7.5" style="30" customWidth="1"/>
-    <col min="34" max="105" width="9.33203125" style="30"/>
-    <col min="106" max="107" width="9.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="108" max="16384" width="9.33203125" style="30"/>
+    <col min="25" max="25" width="7.42578125" style="30" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" style="30" customWidth="1"/>
+    <col min="27" max="27" width="7.42578125" style="30" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="30" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" style="30" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" style="30" customWidth="1"/>
+    <col min="31" max="33" width="7.42578125" style="30" customWidth="1"/>
+    <col min="34" max="105" width="9.28515625" style="30"/>
+    <col min="106" max="107" width="9.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="108" max="16384" width="9.28515625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:111" ht="20.100000000000001" customHeight="1">
@@ -11094,18 +11087,18 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:111" ht="30" customHeight="1">
-      <c r="A2" s="272" t="s">
+    <row r="2" spans="1:111" ht="33.6" customHeight="1">
+      <c r="A2" s="270" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
     </row>
     <row r="3" spans="1:111">
       <c r="A3" s="61"/>
@@ -11120,70 +11113,70 @@
       <c r="J3" s="61"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:111" ht="14.25" thickBot="1">
+    <row r="4" spans="1:111" ht="11.4" thickBot="1">
       <c r="B4" s="87"/>
       <c r="C4" s="192"/>
     </row>
     <row r="5" spans="1:111" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="283" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="286"/>
-      <c r="D5" s="223" t="s">
+      <c r="C5" s="284"/>
+      <c r="D5" s="271" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="224"/>
-      <c r="O5" s="224"/>
-      <c r="P5" s="224"/>
-      <c r="Q5" s="224"/>
-      <c r="R5" s="224"/>
-      <c r="S5" s="224"/>
-      <c r="T5" s="224"/>
-      <c r="U5" s="224"/>
-      <c r="V5" s="224"/>
-      <c r="W5" s="224"/>
-      <c r="X5" s="224"/>
-      <c r="Y5" s="224"/>
-      <c r="Z5" s="224"/>
-      <c r="AA5" s="224"/>
-      <c r="AB5" s="224"/>
-      <c r="AC5" s="224"/>
-      <c r="AD5" s="224"/>
-      <c r="AE5" s="224"/>
-      <c r="AF5" s="224"/>
-      <c r="AG5" s="224"/>
-      <c r="AH5" s="224"/>
-      <c r="AI5" s="224"/>
-      <c r="AJ5" s="224"/>
-      <c r="AK5" s="224"/>
-      <c r="AL5" s="224"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="224"/>
-      <c r="AO5" s="224"/>
-      <c r="AP5" s="224"/>
-      <c r="AQ5" s="224"/>
-      <c r="AR5" s="224"/>
-      <c r="AS5" s="224"/>
-      <c r="AT5" s="224"/>
-      <c r="AU5" s="224"/>
-      <c r="AV5" s="224"/>
-      <c r="AW5" s="224"/>
-      <c r="AX5" s="224"/>
-      <c r="AY5" s="224"/>
-      <c r="AZ5" s="224"/>
-      <c r="BA5" s="224"/>
-      <c r="BB5" s="224"/>
-      <c r="BC5" s="224"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
+      <c r="J5" s="272"/>
+      <c r="K5" s="272"/>
+      <c r="L5" s="272"/>
+      <c r="M5" s="272"/>
+      <c r="N5" s="272"/>
+      <c r="O5" s="272"/>
+      <c r="P5" s="272"/>
+      <c r="Q5" s="272"/>
+      <c r="R5" s="272"/>
+      <c r="S5" s="272"/>
+      <c r="T5" s="272"/>
+      <c r="U5" s="272"/>
+      <c r="V5" s="272"/>
+      <c r="W5" s="272"/>
+      <c r="X5" s="272"/>
+      <c r="Y5" s="272"/>
+      <c r="Z5" s="272"/>
+      <c r="AA5" s="272"/>
+      <c r="AB5" s="272"/>
+      <c r="AC5" s="272"/>
+      <c r="AD5" s="272"/>
+      <c r="AE5" s="272"/>
+      <c r="AF5" s="272"/>
+      <c r="AG5" s="272"/>
+      <c r="AH5" s="272"/>
+      <c r="AI5" s="272"/>
+      <c r="AJ5" s="272"/>
+      <c r="AK5" s="272"/>
+      <c r="AL5" s="272"/>
+      <c r="AM5" s="272"/>
+      <c r="AN5" s="272"/>
+      <c r="AO5" s="272"/>
+      <c r="AP5" s="272"/>
+      <c r="AQ5" s="272"/>
+      <c r="AR5" s="272"/>
+      <c r="AS5" s="272"/>
+      <c r="AT5" s="272"/>
+      <c r="AU5" s="272"/>
+      <c r="AV5" s="272"/>
+      <c r="AW5" s="272"/>
+      <c r="AX5" s="272"/>
+      <c r="AY5" s="272"/>
+      <c r="AZ5" s="223"/>
+      <c r="BA5" s="223"/>
+      <c r="BB5" s="223"/>
+      <c r="BC5" s="223"/>
       <c r="BD5" s="222"/>
       <c r="BE5" s="222"/>
       <c r="BF5" s="222"/>
@@ -11200,272 +11193,272 @@
       <c r="BQ5" s="222"/>
       <c r="BR5" s="222"/>
       <c r="BS5" s="222"/>
-      <c r="BT5" s="224"/>
-      <c r="BU5" s="224"/>
-      <c r="BV5" s="224"/>
-      <c r="BW5" s="224"/>
-      <c r="BX5" s="224"/>
-      <c r="BY5" s="224"/>
-      <c r="BZ5" s="224"/>
-      <c r="CA5" s="224"/>
-      <c r="CB5" s="224"/>
-      <c r="CC5" s="224"/>
-      <c r="CD5" s="224"/>
-      <c r="CE5" s="224"/>
-      <c r="CF5" s="224"/>
-      <c r="CG5" s="224"/>
-      <c r="CH5" s="224"/>
-      <c r="CI5" s="224"/>
-      <c r="CJ5" s="224"/>
-      <c r="CK5" s="226"/>
-      <c r="CL5" s="229" t="s">
+      <c r="BT5" s="223"/>
+      <c r="BU5" s="223"/>
+      <c r="BV5" s="223"/>
+      <c r="BW5" s="223"/>
+      <c r="BX5" s="223"/>
+      <c r="BY5" s="223"/>
+      <c r="BZ5" s="223"/>
+      <c r="CA5" s="223"/>
+      <c r="CB5" s="223"/>
+      <c r="CC5" s="223"/>
+      <c r="CD5" s="223"/>
+      <c r="CE5" s="223"/>
+      <c r="CF5" s="223"/>
+      <c r="CG5" s="223"/>
+      <c r="CH5" s="223"/>
+      <c r="CI5" s="223"/>
+      <c r="CJ5" s="223"/>
+      <c r="CK5" s="223"/>
+      <c r="CL5" s="223"/>
+      <c r="CM5" s="223"/>
+      <c r="CN5" s="223"/>
+      <c r="CO5" s="223"/>
+      <c r="CP5" s="223"/>
+      <c r="CQ5" s="223"/>
+      <c r="CR5" s="223"/>
+      <c r="CS5" s="223"/>
+      <c r="CT5" s="223"/>
+      <c r="CU5" s="225"/>
+      <c r="CV5" s="297" t="s">
         <v>194</v>
       </c>
-      <c r="CM5" s="224"/>
-      <c r="CN5" s="224"/>
-      <c r="CO5" s="224"/>
-      <c r="CP5" s="224"/>
-      <c r="CQ5" s="224"/>
-      <c r="CR5" s="224"/>
-      <c r="CS5" s="224"/>
-      <c r="CT5" s="224"/>
-      <c r="CU5" s="224"/>
-      <c r="CV5" s="224"/>
-      <c r="CW5" s="224"/>
-      <c r="CX5" s="224"/>
-      <c r="CY5" s="224"/>
-      <c r="CZ5" s="224"/>
-      <c r="DA5" s="224"/>
-      <c r="DB5" s="224"/>
-      <c r="DC5" s="224"/>
-      <c r="DD5" s="224"/>
-      <c r="DE5" s="224"/>
-      <c r="DF5" s="224"/>
-      <c r="DG5" s="226"/>
+      <c r="CW5" s="272"/>
+      <c r="CX5" s="272"/>
+      <c r="CY5" s="272"/>
+      <c r="CZ5" s="272"/>
+      <c r="DA5" s="272"/>
+      <c r="DB5" s="272"/>
+      <c r="DC5" s="272"/>
+      <c r="DD5" s="272"/>
+      <c r="DE5" s="272"/>
+      <c r="DF5" s="272"/>
+      <c r="DG5" s="298"/>
     </row>
     <row r="6" spans="1:111" ht="13.5" customHeight="1">
-      <c r="A6" s="296"/>
-      <c r="B6" s="294"/>
-      <c r="C6" s="295"/>
-      <c r="D6" s="291" t="s">
+      <c r="A6" s="294"/>
+      <c r="B6" s="292"/>
+      <c r="C6" s="293"/>
+      <c r="D6" s="289" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="292"/>
-      <c r="F6" s="291" t="s">
+      <c r="E6" s="290"/>
+      <c r="F6" s="289" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="292"/>
-      <c r="H6" s="291" t="s">
+      <c r="G6" s="290"/>
+      <c r="H6" s="289" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="292"/>
-      <c r="J6" s="291" t="s">
+      <c r="I6" s="290"/>
+      <c r="J6" s="289" t="s">
         <v>167</v>
       </c>
-      <c r="K6" s="292"/>
-      <c r="L6" s="291" t="s">
+      <c r="K6" s="290"/>
+      <c r="L6" s="289" t="s">
         <v>168</v>
       </c>
-      <c r="M6" s="292"/>
-      <c r="N6" s="291" t="s">
+      <c r="M6" s="290"/>
+      <c r="N6" s="289" t="s">
         <v>169</v>
       </c>
-      <c r="O6" s="292"/>
-      <c r="P6" s="291" t="s">
+      <c r="O6" s="290"/>
+      <c r="P6" s="289" t="s">
         <v>170</v>
       </c>
-      <c r="Q6" s="292"/>
-      <c r="R6" s="291" t="s">
+      <c r="Q6" s="290"/>
+      <c r="R6" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="S6" s="292"/>
-      <c r="T6" s="291" t="s">
+      <c r="S6" s="290"/>
+      <c r="T6" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="U6" s="292"/>
-      <c r="V6" s="291" t="s">
+      <c r="U6" s="290"/>
+      <c r="V6" s="289" t="s">
         <v>173</v>
       </c>
-      <c r="W6" s="292"/>
-      <c r="X6" s="291" t="s">
+      <c r="W6" s="290"/>
+      <c r="X6" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="Y6" s="292"/>
-      <c r="Z6" s="291" t="s">
+      <c r="Y6" s="290"/>
+      <c r="Z6" s="289" t="s">
         <v>175</v>
       </c>
-      <c r="AA6" s="292"/>
-      <c r="AB6" s="291" t="s">
+      <c r="AA6" s="290"/>
+      <c r="AB6" s="289" t="s">
         <v>201</v>
       </c>
-      <c r="AC6" s="292"/>
-      <c r="AD6" s="291" t="s">
+      <c r="AC6" s="290"/>
+      <c r="AD6" s="289" t="s">
         <v>222</v>
       </c>
-      <c r="AE6" s="292"/>
-      <c r="AF6" s="291" t="s">
+      <c r="AE6" s="290"/>
+      <c r="AF6" s="289" t="s">
         <v>230</v>
       </c>
-      <c r="AG6" s="292"/>
-      <c r="AH6" s="291" t="s">
+      <c r="AG6" s="290"/>
+      <c r="AH6" s="289" t="s">
         <v>234</v>
       </c>
-      <c r="AI6" s="292"/>
-      <c r="AJ6" s="291" t="s">
+      <c r="AI6" s="290"/>
+      <c r="AJ6" s="289" t="s">
         <v>240</v>
       </c>
-      <c r="AK6" s="292"/>
-      <c r="AL6" s="291" t="s">
+      <c r="AK6" s="290"/>
+      <c r="AL6" s="289" t="s">
         <v>241</v>
       </c>
-      <c r="AM6" s="292"/>
-      <c r="AN6" s="291" t="s">
+      <c r="AM6" s="290"/>
+      <c r="AN6" s="289" t="s">
         <v>242</v>
       </c>
-      <c r="AO6" s="292"/>
-      <c r="AP6" s="291" t="s">
+      <c r="AO6" s="290"/>
+      <c r="AP6" s="289" t="s">
         <v>243</v>
       </c>
-      <c r="AQ6" s="292"/>
-      <c r="AR6" s="291" t="s">
+      <c r="AQ6" s="290"/>
+      <c r="AR6" s="289" t="s">
         <v>244</v>
       </c>
-      <c r="AS6" s="292"/>
-      <c r="AT6" s="291" t="s">
+      <c r="AS6" s="290"/>
+      <c r="AT6" s="289" t="s">
         <v>245</v>
       </c>
-      <c r="AU6" s="292"/>
-      <c r="AV6" s="291" t="s">
+      <c r="AU6" s="290"/>
+      <c r="AV6" s="289" t="s">
         <v>246</v>
       </c>
-      <c r="AW6" s="292"/>
-      <c r="AX6" s="291" t="s">
+      <c r="AW6" s="290"/>
+      <c r="AX6" s="289" t="s">
         <v>247</v>
       </c>
-      <c r="AY6" s="292"/>
-      <c r="AZ6" s="291" t="s">
+      <c r="AY6" s="290"/>
+      <c r="AZ6" s="289" t="s">
         <v>248</v>
       </c>
-      <c r="BA6" s="293"/>
-      <c r="BB6" s="289" t="s">
+      <c r="BA6" s="295"/>
+      <c r="BB6" s="287" t="s">
         <v>250</v>
       </c>
-      <c r="BC6" s="297"/>
-      <c r="BD6" s="289" t="s">
+      <c r="BC6" s="291"/>
+      <c r="BD6" s="287" t="s">
         <v>251</v>
       </c>
-      <c r="BE6" s="290"/>
-      <c r="BF6" s="289" t="s">
+      <c r="BE6" s="288"/>
+      <c r="BF6" s="287" t="s">
         <v>252</v>
       </c>
-      <c r="BG6" s="290"/>
-      <c r="BH6" s="289" t="s">
+      <c r="BG6" s="288"/>
+      <c r="BH6" s="287" t="s">
         <v>254</v>
       </c>
-      <c r="BI6" s="290"/>
-      <c r="BJ6" s="289" t="s">
+      <c r="BI6" s="288"/>
+      <c r="BJ6" s="287" t="s">
         <v>253</v>
       </c>
-      <c r="BK6" s="290"/>
-      <c r="BL6" s="289" t="s">
+      <c r="BK6" s="288"/>
+      <c r="BL6" s="287" t="s">
         <v>255</v>
       </c>
-      <c r="BM6" s="290"/>
-      <c r="BN6" s="289" t="s">
+      <c r="BM6" s="288"/>
+      <c r="BN6" s="287" t="s">
         <v>258</v>
       </c>
-      <c r="BO6" s="290"/>
-      <c r="BP6" s="289" t="s">
+      <c r="BO6" s="288"/>
+      <c r="BP6" s="287" t="s">
         <v>259</v>
       </c>
-      <c r="BQ6" s="290"/>
-      <c r="BR6" s="289" t="s">
+      <c r="BQ6" s="288"/>
+      <c r="BR6" s="287" t="s">
         <v>265</v>
       </c>
-      <c r="BS6" s="290"/>
-      <c r="BT6" s="289" t="s">
+      <c r="BS6" s="288"/>
+      <c r="BT6" s="287" t="s">
         <v>264</v>
       </c>
-      <c r="BU6" s="290"/>
-      <c r="BV6" s="289" t="s">
+      <c r="BU6" s="288"/>
+      <c r="BV6" s="287" t="s">
         <v>263</v>
       </c>
-      <c r="BW6" s="290"/>
-      <c r="BX6" s="289" t="s">
+      <c r="BW6" s="288"/>
+      <c r="BX6" s="287" t="s">
         <v>262</v>
       </c>
-      <c r="BY6" s="290"/>
-      <c r="BZ6" s="289" t="s">
+      <c r="BY6" s="288"/>
+      <c r="BZ6" s="287" t="s">
         <v>261</v>
       </c>
-      <c r="CA6" s="290"/>
-      <c r="CB6" s="289" t="s">
+      <c r="CA6" s="288"/>
+      <c r="CB6" s="287" t="s">
         <v>260</v>
       </c>
-      <c r="CC6" s="290"/>
-      <c r="CD6" s="289" t="s">
+      <c r="CC6" s="288"/>
+      <c r="CD6" s="287" t="s">
         <v>267</v>
       </c>
-      <c r="CE6" s="290"/>
-      <c r="CF6" s="289" t="s">
+      <c r="CE6" s="288"/>
+      <c r="CF6" s="287" t="s">
         <v>266</v>
       </c>
-      <c r="CG6" s="290"/>
-      <c r="CH6" s="289" t="s">
+      <c r="CG6" s="288"/>
+      <c r="CH6" s="287" t="s">
         <v>268</v>
       </c>
-      <c r="CI6" s="290"/>
-      <c r="CJ6" s="289" t="s">
+      <c r="CI6" s="288"/>
+      <c r="CJ6" s="287" t="s">
         <v>269</v>
       </c>
-      <c r="CK6" s="290"/>
-      <c r="CL6" s="289" t="s">
+      <c r="CK6" s="288"/>
+      <c r="CL6" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="CM6" s="290"/>
-      <c r="CN6" s="289" t="s">
+      <c r="CM6" s="288"/>
+      <c r="CN6" s="287" t="s">
         <v>272</v>
       </c>
-      <c r="CO6" s="290"/>
-      <c r="CP6" s="289" t="s">
+      <c r="CO6" s="288"/>
+      <c r="CP6" s="287" t="s">
         <v>273</v>
       </c>
-      <c r="CQ6" s="290"/>
-      <c r="CR6" s="289" t="s">
+      <c r="CQ6" s="288"/>
+      <c r="CR6" s="287" t="s">
         <v>274</v>
       </c>
-      <c r="CS6" s="290"/>
-      <c r="CT6" s="289" t="s">
+      <c r="CS6" s="288"/>
+      <c r="CT6" s="287" t="s">
         <v>275</v>
       </c>
-      <c r="CU6" s="290"/>
-      <c r="CV6" s="289" t="s">
+      <c r="CU6" s="288"/>
+      <c r="CV6" s="287" t="s">
         <v>276</v>
       </c>
-      <c r="CW6" s="290"/>
-      <c r="CX6" s="289" t="s">
+      <c r="CW6" s="288"/>
+      <c r="CX6" s="287" t="s">
         <v>277</v>
       </c>
-      <c r="CY6" s="290"/>
-      <c r="CZ6" s="289" t="s">
+      <c r="CY6" s="288"/>
+      <c r="CZ6" s="287" t="s">
         <v>283</v>
       </c>
-      <c r="DA6" s="290"/>
-      <c r="DB6" s="289" t="s">
+      <c r="DA6" s="288"/>
+      <c r="DB6" s="287" t="s">
         <v>284</v>
       </c>
-      <c r="DC6" s="290"/>
-      <c r="DD6" s="289" t="s">
+      <c r="DC6" s="288"/>
+      <c r="DD6" s="287" t="s">
         <v>285</v>
       </c>
-      <c r="DE6" s="290"/>
-      <c r="DF6" s="289" t="s">
+      <c r="DE6" s="288"/>
+      <c r="DF6" s="287" t="s">
         <v>286</v>
       </c>
-      <c r="DG6" s="290"/>
+      <c r="DG6" s="288"/>
     </row>
     <row r="7" spans="1:111">
-      <c r="A7" s="296"/>
+      <c r="A7" s="294"/>
       <c r="B7" s="191" t="s">
         <v>5</v>
       </c>
@@ -18927,7 +18920,7 @@
       </c>
       <c r="DG29" s="163"/>
     </row>
-    <row r="30" spans="1:111" ht="14.25" thickBot="1">
+    <row r="30" spans="1:111" ht="11.4" thickBot="1">
       <c r="A30" s="21" t="s">
         <v>142</v>
       </c>
@@ -19162,90 +19155,90 @@
       <c r="BZ30" s="155">
         <v>16</v>
       </c>
-      <c r="CA30" s="228">
+      <c r="CA30" s="227">
         <v>8.1218274111675104</v>
       </c>
       <c r="CB30" s="155">
         <v>22</v>
       </c>
-      <c r="CC30" s="228">
+      <c r="CC30" s="227">
         <v>11.1675126903553</v>
       </c>
       <c r="CD30" s="155">
         <v>8</v>
       </c>
-      <c r="CE30" s="228">
+      <c r="CE30" s="227">
         <v>4.0609137055837596</v>
       </c>
       <c r="CF30" s="155">
         <v>20</v>
       </c>
-      <c r="CG30" s="228">
+      <c r="CG30" s="227">
         <v>10.1522842639594</v>
       </c>
       <c r="CH30" s="155">
         <v>16</v>
       </c>
-      <c r="CI30" s="228">
+      <c r="CI30" s="227">
         <v>8.1218274111675104</v>
       </c>
       <c r="CJ30" s="155">
         <v>13</v>
       </c>
-      <c r="CK30" s="228">
+      <c r="CK30" s="227">
         <v>6.5989847715736101</v>
       </c>
       <c r="CL30" s="155">
         <v>12</v>
       </c>
-      <c r="CM30" s="227">
+      <c r="CM30" s="226">
         <v>6.0913705583756403</v>
       </c>
-      <c r="CN30" s="225">
+      <c r="CN30" s="224">
         <v>6</v>
       </c>
       <c r="CO30" s="154">
         <v>3.0456852791878202</v>
       </c>
-      <c r="CP30" s="225">
+      <c r="CP30" s="224">
         <v>7</v>
       </c>
       <c r="CQ30" s="154">
         <v>3.5532994923857899</v>
       </c>
-      <c r="CR30" s="225">
+      <c r="CR30" s="224">
         <v>6</v>
       </c>
       <c r="CS30" s="154">
         <v>3.0456852791878202</v>
       </c>
-      <c r="CT30" s="225" t="s">
+      <c r="CT30" s="224" t="s">
         <v>288</v>
       </c>
       <c r="CU30" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="CV30" s="225" t="s">
+      <c r="CV30" s="224" t="s">
         <v>271</v>
       </c>
       <c r="CW30" s="154"/>
-      <c r="CX30" s="225" t="s">
+      <c r="CX30" s="224" t="s">
         <v>271</v>
       </c>
       <c r="CY30" s="154"/>
-      <c r="CZ30" s="225" t="s">
+      <c r="CZ30" s="224" t="s">
         <v>271</v>
       </c>
       <c r="DA30" s="154"/>
-      <c r="DB30" s="225" t="s">
+      <c r="DB30" s="224" t="s">
         <v>271</v>
       </c>
       <c r="DC30" s="154"/>
-      <c r="DD30" s="225" t="s">
+      <c r="DD30" s="224" t="s">
         <v>271</v>
       </c>
       <c r="DE30" s="154"/>
-      <c r="DF30" s="225" t="s">
+      <c r="DF30" s="224" t="s">
         <v>271</v>
       </c>
       <c r="DG30" s="154"/>
@@ -19280,7 +19273,7 @@
       <c r="BO31" s="19"/>
       <c r="BP31" s="19"/>
     </row>
-    <row r="32" spans="1:111">
+    <row r="32" spans="1:111" ht="11.4">
       <c r="A32" s="48" t="s">
         <v>180</v>
       </c>
@@ -19305,7 +19298,7 @@
       <c r="AD32" s="80"/>
       <c r="BH32" s="19"/>
     </row>
-    <row r="33" spans="1:64">
+    <row r="33" spans="1:64" ht="11.4">
       <c r="A33" s="48" t="s">
         <v>181</v>
       </c>
@@ -19349,23 +19342,66 @@
       <c r="BI34" s="151"/>
       <c r="BL34" s="151"/>
     </row>
-    <row r="35" spans="1:64">
+    <row r="35" spans="1:64" ht="11.4">
       <c r="A35" s="48" t="s">
         <v>166</v>
       </c>
       <c r="BL35" s="19"/>
     </row>
-    <row r="36" spans="1:64">
+    <row r="36" spans="1:64" ht="11.4">
       <c r="A36" s="48" t="s">
         <v>199</v>
       </c>
       <c r="BL36" s="19"/>
     </row>
-    <row r="37" spans="1:64">
+    <row r="37" spans="1:64" ht="11.4">
       <c r="A37" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="59">
+    <mergeCell ref="CV5:DG5"/>
+    <mergeCell ref="D5:AY5"/>
+    <mergeCell ref="CX6:CY6"/>
+    <mergeCell ref="CR6:CS6"/>
+    <mergeCell ref="CT6:CU6"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="DB6:DC6"/>
+    <mergeCell ref="CZ6:DA6"/>
+    <mergeCell ref="CB6:CC6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BN6:BO6"/>
+    <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="CD6:CE6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="CL6:CM6"/>
+    <mergeCell ref="CN6:CO6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="T6:U6"/>
     <mergeCell ref="DD6:DE6"/>
     <mergeCell ref="DF6:DG6"/>
     <mergeCell ref="X6:Y6"/>
@@ -19382,47 +19418,6 @@
     <mergeCell ref="AF6:AG6"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="CP6:CQ6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="CF6:CG6"/>
-    <mergeCell ref="CH6:CI6"/>
-    <mergeCell ref="CL6:CM6"/>
-    <mergeCell ref="CN6:CO6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="CX6:CY6"/>
-    <mergeCell ref="CR6:CS6"/>
-    <mergeCell ref="CT6:CU6"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="DB6:DC6"/>
-    <mergeCell ref="CZ6:DA6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19436,69 +19431,69 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="30" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="30" customWidth="1"/>
-    <col min="5" max="20" width="7.5" style="30" customWidth="1"/>
-    <col min="21" max="21" width="7.5" style="193" customWidth="1"/>
-    <col min="22" max="22" width="7.5" style="30" customWidth="1"/>
-    <col min="23" max="23" width="7.5" style="193" customWidth="1"/>
-    <col min="24" max="24" width="7.5" style="30" customWidth="1"/>
-    <col min="25" max="25" width="7.5" style="193" customWidth="1"/>
-    <col min="26" max="26" width="7.5" style="30" customWidth="1"/>
-    <col min="27" max="27" width="7.5" style="193" customWidth="1"/>
-    <col min="28" max="28" width="7.5" style="30" customWidth="1"/>
-    <col min="29" max="29" width="7.5" style="193" customWidth="1"/>
-    <col min="30" max="30" width="7.5" style="30" customWidth="1"/>
-    <col min="31" max="31" width="7.5" style="193" customWidth="1"/>
-    <col min="32" max="32" width="7.5" style="30" customWidth="1"/>
-    <col min="33" max="33" width="7.5" style="193" customWidth="1"/>
-    <col min="34" max="34" width="9.33203125" style="30"/>
-    <col min="35" max="35" width="9.33203125" style="193"/>
-    <col min="36" max="36" width="9.33203125" style="30"/>
-    <col min="37" max="37" width="9.33203125" style="193"/>
-    <col min="38" max="38" width="9.33203125" style="30"/>
-    <col min="39" max="39" width="9.33203125" style="193"/>
-    <col min="40" max="40" width="9.33203125" style="30"/>
-    <col min="41" max="41" width="9.33203125" style="193"/>
-    <col min="42" max="42" width="9.33203125" style="30"/>
-    <col min="43" max="43" width="9.33203125" style="193"/>
-    <col min="44" max="44" width="9.33203125" style="30"/>
-    <col min="45" max="45" width="9.33203125" style="193"/>
-    <col min="46" max="46" width="9.33203125" style="30"/>
-    <col min="47" max="47" width="9.33203125" style="193"/>
-    <col min="48" max="48" width="9.33203125" style="30"/>
-    <col min="49" max="49" width="9.33203125" style="193"/>
-    <col min="50" max="50" width="9.33203125" style="30"/>
-    <col min="51" max="51" width="9.33203125" style="193"/>
-    <col min="52" max="52" width="9.33203125" style="30"/>
-    <col min="53" max="53" width="9.33203125" style="193"/>
-    <col min="54" max="54" width="9.33203125" style="30"/>
-    <col min="55" max="55" width="9.33203125" style="193"/>
-    <col min="56" max="56" width="9.33203125" style="30"/>
-    <col min="57" max="57" width="9.33203125" style="193"/>
-    <col min="58" max="58" width="9.33203125" style="30"/>
-    <col min="59" max="59" width="9.33203125" style="193"/>
-    <col min="60" max="60" width="9.33203125" style="30"/>
-    <col min="61" max="61" width="9.33203125" style="193"/>
-    <col min="62" max="62" width="9.33203125" style="30"/>
-    <col min="63" max="63" width="9.33203125" style="193"/>
-    <col min="64" max="64" width="9.33203125" style="30"/>
-    <col min="65" max="65" width="9.33203125" style="193"/>
-    <col min="66" max="66" width="9.33203125" style="30"/>
-    <col min="67" max="67" width="9.33203125" style="193"/>
-    <col min="68" max="68" width="9.33203125" style="30"/>
-    <col min="69" max="69" width="9.33203125" style="193"/>
-    <col min="70" max="78" width="9.33203125" style="30"/>
-    <col min="79" max="79" width="9.33203125" style="193"/>
-    <col min="80" max="80" width="9.33203125" style="30"/>
-    <col min="81" max="81" width="9.33203125" style="193"/>
-    <col min="82" max="82" width="9.33203125" style="30"/>
-    <col min="83" max="83" width="9.33203125" style="193"/>
-    <col min="84" max="16384" width="9.33203125" style="30"/>
+    <col min="1" max="1" width="40.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="30" customWidth="1"/>
+    <col min="5" max="20" width="7.42578125" style="30" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" style="193" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="30" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="193" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="30" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" style="193" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" style="30" customWidth="1"/>
+    <col min="27" max="27" width="7.42578125" style="193" customWidth="1"/>
+    <col min="28" max="28" width="7.42578125" style="30" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" style="193" customWidth="1"/>
+    <col min="30" max="30" width="7.42578125" style="30" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" style="193" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" style="30" customWidth="1"/>
+    <col min="33" max="33" width="7.42578125" style="193" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" style="30"/>
+    <col min="35" max="35" width="9.28515625" style="193"/>
+    <col min="36" max="36" width="9.28515625" style="30"/>
+    <col min="37" max="37" width="9.28515625" style="193"/>
+    <col min="38" max="38" width="9.28515625" style="30"/>
+    <col min="39" max="39" width="9.28515625" style="193"/>
+    <col min="40" max="40" width="9.28515625" style="30"/>
+    <col min="41" max="41" width="9.28515625" style="193"/>
+    <col min="42" max="42" width="9.28515625" style="30"/>
+    <col min="43" max="43" width="9.28515625" style="193"/>
+    <col min="44" max="44" width="9.28515625" style="30"/>
+    <col min="45" max="45" width="9.28515625" style="193"/>
+    <col min="46" max="46" width="9.28515625" style="30"/>
+    <col min="47" max="47" width="9.28515625" style="193"/>
+    <col min="48" max="48" width="9.28515625" style="30"/>
+    <col min="49" max="49" width="9.28515625" style="193"/>
+    <col min="50" max="50" width="9.28515625" style="30"/>
+    <col min="51" max="51" width="9.28515625" style="193"/>
+    <col min="52" max="52" width="9.28515625" style="30"/>
+    <col min="53" max="53" width="9.28515625" style="193"/>
+    <col min="54" max="54" width="9.28515625" style="30"/>
+    <col min="55" max="55" width="9.28515625" style="193"/>
+    <col min="56" max="56" width="9.28515625" style="30"/>
+    <col min="57" max="57" width="9.28515625" style="193"/>
+    <col min="58" max="58" width="9.28515625" style="30"/>
+    <col min="59" max="59" width="9.28515625" style="193"/>
+    <col min="60" max="60" width="9.28515625" style="30"/>
+    <col min="61" max="61" width="9.28515625" style="193"/>
+    <col min="62" max="62" width="9.28515625" style="30"/>
+    <col min="63" max="63" width="9.28515625" style="193"/>
+    <col min="64" max="64" width="9.28515625" style="30"/>
+    <col min="65" max="65" width="9.28515625" style="193"/>
+    <col min="66" max="66" width="9.28515625" style="30"/>
+    <col min="67" max="67" width="9.28515625" style="193"/>
+    <col min="68" max="68" width="9.28515625" style="30"/>
+    <col min="69" max="69" width="9.28515625" style="193"/>
+    <col min="70" max="78" width="9.28515625" style="30"/>
+    <col min="79" max="79" width="9.28515625" style="193"/>
+    <col min="80" max="80" width="9.28515625" style="30"/>
+    <col min="81" max="81" width="9.28515625" style="193"/>
+    <col min="82" max="82" width="9.28515625" style="30"/>
+    <col min="83" max="83" width="9.28515625" style="193"/>
+    <col min="84" max="16384" width="9.28515625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:109" ht="20.100000000000001" customHeight="1">
@@ -19507,15 +19502,15 @@
       </c>
     </row>
     <row r="2" spans="1:109" ht="46.5" customHeight="1">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="281" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
       <c r="BC2" s="30"/>
       <c r="BD2" s="193"/>
       <c r="BE2" s="30"/>
@@ -19549,67 +19544,67 @@
       <c r="H3" s="61"/>
       <c r="I3" s="61"/>
     </row>
-    <row r="4" spans="1:109" ht="14.25" thickBot="1">
+    <row r="4" spans="1:109" ht="11.4" thickBot="1">
       <c r="A4" s="104"/>
     </row>
     <row r="5" spans="1:109" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="283" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="286"/>
-      <c r="D5" s="273" t="s">
+      <c r="C5" s="284"/>
+      <c r="D5" s="271" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="274"/>
-      <c r="J5" s="274"/>
-      <c r="K5" s="274"/>
-      <c r="L5" s="274"/>
-      <c r="M5" s="274"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="274"/>
-      <c r="P5" s="274"/>
-      <c r="Q5" s="274"/>
-      <c r="R5" s="274"/>
-      <c r="S5" s="274"/>
-      <c r="T5" s="274"/>
-      <c r="U5" s="274"/>
-      <c r="V5" s="274"/>
-      <c r="W5" s="274"/>
-      <c r="X5" s="274"/>
-      <c r="Y5" s="274"/>
-      <c r="Z5" s="274"/>
-      <c r="AA5" s="274"/>
-      <c r="AB5" s="274"/>
-      <c r="AC5" s="274"/>
-      <c r="AD5" s="274"/>
-      <c r="AE5" s="274"/>
-      <c r="AF5" s="274"/>
-      <c r="AG5" s="274"/>
-      <c r="AH5" s="274"/>
-      <c r="AI5" s="274"/>
-      <c r="AJ5" s="274"/>
-      <c r="AK5" s="274"/>
-      <c r="AL5" s="274"/>
-      <c r="AM5" s="274"/>
-      <c r="AN5" s="274"/>
-      <c r="AO5" s="274"/>
-      <c r="AP5" s="274"/>
-      <c r="AQ5" s="274"/>
-      <c r="AR5" s="274"/>
-      <c r="AS5" s="274"/>
-      <c r="AT5" s="274"/>
-      <c r="AU5" s="274"/>
-      <c r="AV5" s="274"/>
-      <c r="AW5" s="274"/>
-      <c r="AX5" s="274"/>
-      <c r="AY5" s="274"/>
-      <c r="AZ5" s="274"/>
-      <c r="BA5" s="274"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
+      <c r="J5" s="272"/>
+      <c r="K5" s="272"/>
+      <c r="L5" s="272"/>
+      <c r="M5" s="272"/>
+      <c r="N5" s="272"/>
+      <c r="O5" s="272"/>
+      <c r="P5" s="272"/>
+      <c r="Q5" s="272"/>
+      <c r="R5" s="272"/>
+      <c r="S5" s="272"/>
+      <c r="T5" s="272"/>
+      <c r="U5" s="272"/>
+      <c r="V5" s="272"/>
+      <c r="W5" s="272"/>
+      <c r="X5" s="272"/>
+      <c r="Y5" s="272"/>
+      <c r="Z5" s="272"/>
+      <c r="AA5" s="272"/>
+      <c r="AB5" s="272"/>
+      <c r="AC5" s="272"/>
+      <c r="AD5" s="272"/>
+      <c r="AE5" s="272"/>
+      <c r="AF5" s="272"/>
+      <c r="AG5" s="272"/>
+      <c r="AH5" s="272"/>
+      <c r="AI5" s="272"/>
+      <c r="AJ5" s="272"/>
+      <c r="AK5" s="272"/>
+      <c r="AL5" s="272"/>
+      <c r="AM5" s="272"/>
+      <c r="AN5" s="272"/>
+      <c r="AO5" s="272"/>
+      <c r="AP5" s="272"/>
+      <c r="AQ5" s="272"/>
+      <c r="AR5" s="272"/>
+      <c r="AS5" s="272"/>
+      <c r="AT5" s="272"/>
+      <c r="AU5" s="272"/>
+      <c r="AV5" s="272"/>
+      <c r="AW5" s="272"/>
+      <c r="AX5" s="272"/>
+      <c r="AY5" s="272"/>
+      <c r="AZ5" s="272"/>
+      <c r="BA5" s="272"/>
       <c r="BB5" s="222"/>
       <c r="BC5" s="222"/>
       <c r="BD5" s="222"/>
@@ -19626,268 +19621,268 @@
       <c r="BO5" s="222"/>
       <c r="BP5" s="222"/>
       <c r="BQ5" s="222"/>
-      <c r="BR5" s="224"/>
-      <c r="BS5" s="224"/>
-      <c r="BT5" s="224"/>
-      <c r="BU5" s="224"/>
-      <c r="BV5" s="224"/>
-      <c r="BW5" s="224"/>
-      <c r="BX5" s="224"/>
-      <c r="BY5" s="224"/>
-      <c r="BZ5" s="224"/>
-      <c r="CA5" s="224"/>
-      <c r="CB5" s="224"/>
-      <c r="CC5" s="224"/>
-      <c r="CD5" s="224"/>
-      <c r="CE5" s="224"/>
-      <c r="CF5" s="224"/>
-      <c r="CG5" s="224"/>
-      <c r="CH5" s="224"/>
-      <c r="CI5" s="226"/>
-      <c r="CJ5" s="299" t="s">
+      <c r="BR5" s="223"/>
+      <c r="BS5" s="223"/>
+      <c r="BT5" s="223"/>
+      <c r="BU5" s="223"/>
+      <c r="BV5" s="223"/>
+      <c r="BW5" s="223"/>
+      <c r="BX5" s="223"/>
+      <c r="BY5" s="223"/>
+      <c r="BZ5" s="223"/>
+      <c r="CA5" s="223"/>
+      <c r="CB5" s="223"/>
+      <c r="CC5" s="223"/>
+      <c r="CD5" s="223"/>
+      <c r="CE5" s="223"/>
+      <c r="CF5" s="223"/>
+      <c r="CG5" s="223"/>
+      <c r="CH5" s="223"/>
+      <c r="CI5" s="223"/>
+      <c r="CJ5" s="223"/>
+      <c r="CK5" s="223"/>
+      <c r="CL5" s="223"/>
+      <c r="CM5" s="223"/>
+      <c r="CN5" s="223"/>
+      <c r="CO5" s="223"/>
+      <c r="CP5" s="223"/>
+      <c r="CQ5" s="223"/>
+      <c r="CR5" s="223"/>
+      <c r="CS5" s="225"/>
+      <c r="CT5" s="297" t="s">
         <v>203</v>
       </c>
-      <c r="CK5" s="274"/>
-      <c r="CL5" s="274"/>
-      <c r="CM5" s="274"/>
-      <c r="CN5" s="274"/>
-      <c r="CO5" s="274"/>
-      <c r="CP5" s="274"/>
-      <c r="CQ5" s="274"/>
-      <c r="CR5" s="274"/>
-      <c r="CS5" s="274"/>
-      <c r="CT5" s="274"/>
-      <c r="CU5" s="274"/>
-      <c r="CV5" s="274"/>
-      <c r="CW5" s="274"/>
-      <c r="CX5" s="274"/>
-      <c r="CY5" s="274"/>
-      <c r="CZ5" s="224"/>
-      <c r="DA5" s="224"/>
-      <c r="DB5" s="224"/>
-      <c r="DC5" s="224"/>
-      <c r="DD5" s="224"/>
-      <c r="DE5" s="226"/>
+      <c r="CU5" s="272"/>
+      <c r="CV5" s="272"/>
+      <c r="CW5" s="272"/>
+      <c r="CX5" s="272"/>
+      <c r="CY5" s="272"/>
+      <c r="CZ5" s="272"/>
+      <c r="DA5" s="272"/>
+      <c r="DB5" s="272"/>
+      <c r="DC5" s="272"/>
+      <c r="DD5" s="272"/>
+      <c r="DE5" s="298"/>
     </row>
     <row r="6" spans="1:109" ht="13.5" customHeight="1">
-      <c r="A6" s="287"/>
-      <c r="B6" s="280"/>
-      <c r="C6" s="279"/>
-      <c r="D6" s="291" t="s">
+      <c r="A6" s="285"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="277"/>
+      <c r="D6" s="289" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="292"/>
-      <c r="F6" s="291" t="s">
+      <c r="E6" s="290"/>
+      <c r="F6" s="289" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="292"/>
-      <c r="H6" s="291" t="s">
+      <c r="G6" s="290"/>
+      <c r="H6" s="289" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="292"/>
-      <c r="J6" s="291" t="s">
+      <c r="I6" s="290"/>
+      <c r="J6" s="289" t="s">
         <v>168</v>
       </c>
-      <c r="K6" s="292"/>
-      <c r="L6" s="291" t="s">
+      <c r="K6" s="290"/>
+      <c r="L6" s="289" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="292"/>
-      <c r="N6" s="291" t="s">
+      <c r="M6" s="290"/>
+      <c r="N6" s="289" t="s">
         <v>170</v>
       </c>
-      <c r="O6" s="292"/>
-      <c r="P6" s="291" t="s">
+      <c r="O6" s="290"/>
+      <c r="P6" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="Q6" s="292"/>
-      <c r="R6" s="291" t="s">
+      <c r="Q6" s="290"/>
+      <c r="R6" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="S6" s="292"/>
-      <c r="T6" s="291" t="s">
+      <c r="S6" s="290"/>
+      <c r="T6" s="289" t="s">
         <v>173</v>
       </c>
-      <c r="U6" s="292"/>
-      <c r="V6" s="291" t="s">
+      <c r="U6" s="290"/>
+      <c r="V6" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="W6" s="292"/>
-      <c r="X6" s="291" t="s">
+      <c r="W6" s="290"/>
+      <c r="X6" s="289" t="s">
         <v>175</v>
       </c>
-      <c r="Y6" s="292"/>
-      <c r="Z6" s="291" t="s">
+      <c r="Y6" s="290"/>
+      <c r="Z6" s="289" t="s">
         <v>201</v>
       </c>
-      <c r="AA6" s="292"/>
-      <c r="AB6" s="291" t="s">
+      <c r="AA6" s="290"/>
+      <c r="AB6" s="289" t="s">
         <v>222</v>
       </c>
-      <c r="AC6" s="292"/>
-      <c r="AD6" s="298" t="s">
+      <c r="AC6" s="290"/>
+      <c r="AD6" s="296" t="s">
         <v>230</v>
       </c>
-      <c r="AE6" s="292"/>
-      <c r="AF6" s="298" t="s">
+      <c r="AE6" s="290"/>
+      <c r="AF6" s="296" t="s">
         <v>234</v>
       </c>
-      <c r="AG6" s="292"/>
-      <c r="AH6" s="298" t="s">
+      <c r="AG6" s="290"/>
+      <c r="AH6" s="296" t="s">
         <v>240</v>
       </c>
-      <c r="AI6" s="292"/>
-      <c r="AJ6" s="298" t="s">
+      <c r="AI6" s="290"/>
+      <c r="AJ6" s="296" t="s">
         <v>241</v>
       </c>
-      <c r="AK6" s="292"/>
-      <c r="AL6" s="298" t="s">
+      <c r="AK6" s="290"/>
+      <c r="AL6" s="296" t="s">
         <v>242</v>
       </c>
-      <c r="AM6" s="292"/>
-      <c r="AN6" s="298" t="s">
+      <c r="AM6" s="290"/>
+      <c r="AN6" s="296" t="s">
         <v>243</v>
       </c>
-      <c r="AO6" s="292"/>
-      <c r="AP6" s="298" t="s">
+      <c r="AO6" s="290"/>
+      <c r="AP6" s="296" t="s">
         <v>244</v>
       </c>
-      <c r="AQ6" s="292"/>
-      <c r="AR6" s="298" t="s">
+      <c r="AQ6" s="290"/>
+      <c r="AR6" s="296" t="s">
         <v>245</v>
       </c>
-      <c r="AS6" s="292"/>
-      <c r="AT6" s="298" t="s">
+      <c r="AS6" s="290"/>
+      <c r="AT6" s="296" t="s">
         <v>246</v>
       </c>
-      <c r="AU6" s="292"/>
-      <c r="AV6" s="298" t="s">
+      <c r="AU6" s="290"/>
+      <c r="AV6" s="296" t="s">
         <v>247</v>
       </c>
-      <c r="AW6" s="292"/>
-      <c r="AX6" s="298" t="s">
+      <c r="AW6" s="290"/>
+      <c r="AX6" s="296" t="s">
         <v>248</v>
       </c>
-      <c r="AY6" s="292"/>
-      <c r="AZ6" s="298" t="s">
+      <c r="AY6" s="290"/>
+      <c r="AZ6" s="296" t="s">
         <v>250</v>
       </c>
-      <c r="BA6" s="292"/>
-      <c r="BB6" s="298" t="s">
+      <c r="BA6" s="290"/>
+      <c r="BB6" s="296" t="s">
         <v>251</v>
       </c>
-      <c r="BC6" s="292"/>
-      <c r="BD6" s="298" t="s">
+      <c r="BC6" s="290"/>
+      <c r="BD6" s="296" t="s">
         <v>252</v>
       </c>
-      <c r="BE6" s="292"/>
-      <c r="BF6" s="298" t="s">
+      <c r="BE6" s="290"/>
+      <c r="BF6" s="296" t="s">
         <v>254</v>
       </c>
-      <c r="BG6" s="292"/>
-      <c r="BH6" s="298" t="s">
+      <c r="BG6" s="290"/>
+      <c r="BH6" s="296" t="s">
         <v>253</v>
       </c>
-      <c r="BI6" s="292"/>
-      <c r="BJ6" s="298" t="s">
+      <c r="BI6" s="290"/>
+      <c r="BJ6" s="296" t="s">
         <v>255</v>
       </c>
-      <c r="BK6" s="292"/>
-      <c r="BL6" s="298" t="s">
+      <c r="BK6" s="290"/>
+      <c r="BL6" s="296" t="s">
         <v>258</v>
       </c>
-      <c r="BM6" s="292"/>
-      <c r="BN6" s="298" t="s">
+      <c r="BM6" s="290"/>
+      <c r="BN6" s="296" t="s">
         <v>259</v>
       </c>
-      <c r="BO6" s="292"/>
-      <c r="BP6" s="298" t="s">
+      <c r="BO6" s="290"/>
+      <c r="BP6" s="296" t="s">
         <v>265</v>
       </c>
-      <c r="BQ6" s="292"/>
-      <c r="BR6" s="298" t="s">
+      <c r="BQ6" s="290"/>
+      <c r="BR6" s="296" t="s">
         <v>264</v>
       </c>
-      <c r="BS6" s="292"/>
-      <c r="BT6" s="298" t="s">
+      <c r="BS6" s="290"/>
+      <c r="BT6" s="296" t="s">
         <v>263</v>
       </c>
-      <c r="BU6" s="292"/>
-      <c r="BV6" s="298" t="s">
+      <c r="BU6" s="290"/>
+      <c r="BV6" s="296" t="s">
         <v>262</v>
       </c>
-      <c r="BW6" s="292"/>
-      <c r="BX6" s="298" t="s">
+      <c r="BW6" s="290"/>
+      <c r="BX6" s="296" t="s">
         <v>261</v>
       </c>
-      <c r="BY6" s="292"/>
-      <c r="BZ6" s="298" t="s">
+      <c r="BY6" s="290"/>
+      <c r="BZ6" s="296" t="s">
         <v>260</v>
       </c>
-      <c r="CA6" s="292"/>
-      <c r="CB6" s="298" t="s">
+      <c r="CA6" s="290"/>
+      <c r="CB6" s="296" t="s">
         <v>267</v>
       </c>
-      <c r="CC6" s="292"/>
-      <c r="CD6" s="298" t="s">
+      <c r="CC6" s="290"/>
+      <c r="CD6" s="296" t="s">
         <v>266</v>
       </c>
-      <c r="CE6" s="292"/>
-      <c r="CF6" s="298" t="s">
+      <c r="CE6" s="290"/>
+      <c r="CF6" s="296" t="s">
         <v>268</v>
       </c>
-      <c r="CG6" s="292"/>
-      <c r="CH6" s="298" t="s">
+      <c r="CG6" s="290"/>
+      <c r="CH6" s="296" t="s">
         <v>269</v>
       </c>
-      <c r="CI6" s="292"/>
-      <c r="CJ6" s="298" t="s">
+      <c r="CI6" s="290"/>
+      <c r="CJ6" s="296" t="s">
         <v>270</v>
       </c>
-      <c r="CK6" s="292"/>
-      <c r="CL6" s="298" t="s">
+      <c r="CK6" s="290"/>
+      <c r="CL6" s="296" t="s">
         <v>272</v>
       </c>
-      <c r="CM6" s="292"/>
-      <c r="CN6" s="298" t="s">
+      <c r="CM6" s="290"/>
+      <c r="CN6" s="296" t="s">
         <v>273</v>
       </c>
-      <c r="CO6" s="292"/>
-      <c r="CP6" s="298" t="s">
+      <c r="CO6" s="290"/>
+      <c r="CP6" s="296" t="s">
         <v>274</v>
       </c>
-      <c r="CQ6" s="292"/>
-      <c r="CR6" s="298" t="s">
+      <c r="CQ6" s="290"/>
+      <c r="CR6" s="296" t="s">
         <v>275</v>
       </c>
-      <c r="CS6" s="292"/>
-      <c r="CT6" s="298" t="s">
+      <c r="CS6" s="290"/>
+      <c r="CT6" s="296" t="s">
         <v>276</v>
       </c>
-      <c r="CU6" s="292"/>
-      <c r="CV6" s="298" t="s">
+      <c r="CU6" s="290"/>
+      <c r="CV6" s="296" t="s">
         <v>277</v>
       </c>
-      <c r="CW6" s="292"/>
-      <c r="CX6" s="298" t="s">
+      <c r="CW6" s="290"/>
+      <c r="CX6" s="296" t="s">
         <v>283</v>
       </c>
-      <c r="CY6" s="292"/>
-      <c r="CZ6" s="298" t="s">
+      <c r="CY6" s="290"/>
+      <c r="CZ6" s="296" t="s">
         <v>284</v>
       </c>
-      <c r="DA6" s="292"/>
-      <c r="DB6" s="298" t="s">
+      <c r="DA6" s="290"/>
+      <c r="DB6" s="296" t="s">
         <v>285</v>
       </c>
-      <c r="DC6" s="292"/>
-      <c r="DD6" s="298" t="s">
+      <c r="DC6" s="290"/>
+      <c r="DD6" s="296" t="s">
         <v>286</v>
       </c>
-      <c r="DE6" s="292"/>
+      <c r="DE6" s="290"/>
     </row>
     <row r="7" spans="1:109">
-      <c r="A7" s="288"/>
+      <c r="A7" s="286"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -27217,7 +27212,7 @@
         <v>1.3698630136986301</v>
       </c>
     </row>
-    <row r="30" spans="1:109" ht="14.25" thickBot="1">
+    <row r="30" spans="1:109" ht="11.4" thickBot="1">
       <c r="A30" s="21" t="s">
         <v>142</v>
       </c>
@@ -27550,7 +27545,7 @@
       <c r="BC31" s="195"/>
       <c r="BD31" s="152"/>
     </row>
-    <row r="32" spans="1:109">
+    <row r="32" spans="1:109" ht="11.4">
       <c r="A32" s="48" t="s">
         <v>180</v>
       </c>
@@ -27572,7 +27567,7 @@
       <c r="Z32" s="80"/>
       <c r="BR32" s="19"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" ht="11.4">
       <c r="A33" s="48" t="s">
         <v>181</v>
       </c>
@@ -27606,40 +27601,38 @@
     <row r="34" spans="1:27" ht="15" customHeight="1">
       <c r="A34" s="98"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" ht="11.4">
       <c r="A35" s="48" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" ht="11.4">
       <c r="A36" s="48" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" ht="11.4">
       <c r="A37" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="CZ6:DA6"/>
-    <mergeCell ref="DB6:DC6"/>
-    <mergeCell ref="DD6:DE6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="CN6:CO6"/>
-    <mergeCell ref="CX6:CY6"/>
-    <mergeCell ref="CJ5:CY5"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="CV6:CW6"/>
-    <mergeCell ref="CP6:CQ6"/>
-    <mergeCell ref="CR6:CS6"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="CT5:DE5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D5:BA5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="BJ6:BK6"/>
@@ -27656,25 +27649,27 @@
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="V6:W6"/>
     <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D5:BA5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="CV6:CW6"/>
+    <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="CR6:CS6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="CJ6:CK6"/>
     <mergeCell ref="BZ6:CA6"/>
     <mergeCell ref="CB6:CC6"/>
     <mergeCell ref="CL6:CM6"/>
+    <mergeCell ref="CZ6:DA6"/>
+    <mergeCell ref="DB6:DC6"/>
+    <mergeCell ref="DD6:DE6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="CN6:CO6"/>
+    <mergeCell ref="CX6:CY6"/>
     <mergeCell ref="CT6:CU6"/>
     <mergeCell ref="CF6:CG6"/>
     <mergeCell ref="CH6:CI6"/>
@@ -27687,6 +27682,53 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
+    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Hälso- och sjukvård</Value>
+    </Verksamhetsomr_x00e5_de>
+    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
+    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
+    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <UserInfo>
+        <DisplayName>Söderholm, Joen</DisplayName>
+        <AccountId>87</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Ansvarig_x0020_webbredakt_x00f6_r>
+    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
+    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
+    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Socialstyrelsen.se</Value>
+    </Webbplatstillh_x00f6_righet>
+    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
+        </TermInfo>
+      </Terms>
+    </i01e5b6f93524074838bfc1e1bab8714>
+    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -28019,68 +28061,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
-    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Hälso- och sjukvård</Value>
-    </Verksamhetsomr_x00e5_de>
-    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
-    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
-    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <UserInfo>
-        <DisplayName>Söderholm, Joen</DisplayName>
-        <AccountId>87</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Ansvarig_x0020_webbredakt_x00f6_r>
-    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
-    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
-    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Socialstyrelsen.se</Value>
-    </Webbplatstillh_x00f6_righet>
-    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
-        </TermInfo>
-      </Terms>
-    </i01e5b6f93524074838bfc1e1bab8714>
-    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28103,9 +28087,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>